--- a/Supplemental Files/File S1.xlsx
+++ b/Supplemental Files/File S1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Box Sync/Lab_Hallem/Astra/Writing/Bryant and Hallem 2021/Figures and Files/Supplemental Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aerie/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262C7EC9-7CBC-B943-B23F-548BEB802508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CA085-9141-3945-861C-9724E94339D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{30668CB1-FD44-3144-A3BF-3A2CD0D9E3D3}"/>
+    <workbookView xWindow="500" yWindow="1000" windowWidth="28800" windowHeight="17540" xr2:uid="{30668CB1-FD44-3144-A3BF-3A2CD0D9E3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="142">
   <si>
     <t>SR 1-50</t>
   </si>
@@ -469,6 +469,30 @@
   </si>
   <si>
     <t>File S1. Codon usage frequencies and optimal codons for the Wild Worm Codon Optimizer App</t>
+  </si>
+  <si>
+    <t>Sr vs CE</t>
+  </si>
+  <si>
+    <t>Bm vs Ce</t>
+  </si>
+  <si>
+    <t>10 same, 11 different</t>
+  </si>
+  <si>
+    <t>7 same, 14 different</t>
+  </si>
+  <si>
+    <t>Pp vs Ce</t>
+  </si>
+  <si>
+    <t>Nb vs Ce</t>
+  </si>
+  <si>
+    <t>17 same,  4 different</t>
+  </si>
+  <si>
+    <t>13 same, 8 different</t>
   </si>
 </sst>
 </file>
@@ -660,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -841,6 +865,28 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -853,10 +899,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,61 +947,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A30632-94E3-C84C-8194-9B1F6412D0D9}">
-  <dimension ref="A1:AB135"/>
+  <dimension ref="A1:AO135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:I4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,22 +1363,34 @@
     <col min="13" max="13" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="10" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="50" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="38" customWidth="1"/>
     <col min="17" max="17" width="8" style="41" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" style="50" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8" style="41" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" style="23" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="8" style="10" customWidth="1"/>
-    <col min="24" max="24" width="9.5" style="19" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="2"/>
-    <col min="27" max="28" width="70.6640625" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="2"/>
+    <col min="19" max="19" width="9.5" style="38" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.6640625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="8" style="41" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="23" customWidth="1"/>
+    <col min="27" max="27" width="9.5" style="38" customWidth="1"/>
+    <col min="28" max="28" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.6640625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="8" style="10" customWidth="1"/>
+    <col min="33" max="33" width="9.5" style="19" customWidth="1"/>
+    <col min="34" max="34" width="9.5" style="38" customWidth="1"/>
+    <col min="35" max="35" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.83203125" style="2"/>
+    <col min="40" max="41" width="70.6640625" style="2" customWidth="1"/>
+    <col min="42" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="30" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:41" s="30" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
         <v>133</v>
       </c>
       <c r="B1" s="9"/>
@@ -1292,18 +1407,31 @@
       <c r="M1" s="9"/>
       <c r="N1" s="11"/>
       <c r="O1" s="38"/>
-      <c r="P1" s="11"/>
+      <c r="P1" s="38"/>
       <c r="Q1" s="42"/>
       <c r="R1" s="38"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="9"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
-      <c r="Y1" s="22"/>
-    </row>
-    <row r="2" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="22"/>
+    </row>
+    <row r="2" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1319,183 +1447,261 @@
       <c r="M2" s="9"/>
       <c r="N2" s="11"/>
       <c r="O2" s="38"/>
-      <c r="P2" s="11"/>
+      <c r="P2" s="38"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="9"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="22"/>
-    </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="s">
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="22"/>
+    </row>
+    <row r="3" spans="1:41" s="3" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="125" t="s">
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="125" t="s">
+      <c r="O3" s="118"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="126"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="125" t="s">
+      <c r="R3" s="118"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="U3" s="126"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="125" t="s">
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="X3" s="126"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:28" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3"/>
+    </row>
+    <row r="4" spans="1:41" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="65"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="127"/>
       <c r="J4" s="20"/>
       <c r="K4" s="64"/>
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="105"/>
-    </row>
-    <row r="5" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="119"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="135"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+    </row>
+    <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="68"/>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="114"/>
+      <c r="F5" s="121"/>
       <c r="G5" s="68"/>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="101"/>
+      <c r="I5" s="109"/>
       <c r="J5" s="21"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
-      <c r="N5" s="100" t="s">
+      <c r="N5" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="101"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="100" t="s">
+      <c r="O5" s="109"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="R5" s="101"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="100" t="s">
+      <c r="R5" s="109"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="U5" s="101"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="100" t="s">
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="101"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="146"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="146"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="69"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
       <c r="D6" s="71"/>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="111"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="71"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="72"/>
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
       <c r="M6" s="70"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="103"/>
-    </row>
-    <row r="7" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="110"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="137"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+    </row>
+    <row r="7" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
       <c r="D7" s="71"/>
-      <c r="E7" s="112">
+      <c r="E7" s="116">
         <v>11458</v>
       </c>
-      <c r="F7" s="111"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="71"/>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="103"/>
+      <c r="I7" s="111"/>
       <c r="J7" s="72"/>
       <c r="K7" s="70"/>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
       <c r="N7" s="62"/>
       <c r="O7" s="63"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="102" t="s">
+      <c r="P7" s="138"/>
+      <c r="Q7" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="103"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="102" t="s">
+      <c r="R7" s="111"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="U7" s="103"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="102" t="s">
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="138"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="X7" s="103"/>
-    </row>
-    <row r="8" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="138"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+    </row>
+    <row r="8" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -1521,28 +1727,41 @@
       <c r="O8" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="71"/>
+      <c r="P8" s="141"/>
       <c r="Q8" s="73" t="s">
         <v>119</v>
       </c>
       <c r="R8" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="71"/>
-      <c r="T8" s="73" t="s">
+      <c r="S8" s="141"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="U8" s="75" t="s">
+      <c r="Z8" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="V8" s="72"/>
-      <c r="W8" s="115" t="s">
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="X8" s="116"/>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="141"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AO8" s="5"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="76"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -1568,25 +1787,38 @@
       <c r="O9" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="77"/>
+      <c r="P9" s="142"/>
       <c r="Q9" s="78" t="s">
         <v>120</v>
       </c>
       <c r="R9" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="77"/>
-      <c r="T9" s="78" t="s">
+      <c r="S9" s="142"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="U9" s="82" t="s">
+      <c r="Z9" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="79"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="118"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+    </row>
+    <row r="10" spans="1:41" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="69"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -1601,51 +1833,93 @@
       </c>
       <c r="I10" s="85"/>
       <c r="J10" s="86"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
+      <c r="K10" s="128" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="129"/>
+      <c r="M10" s="130"/>
       <c r="N10" s="87"/>
       <c r="O10" s="88"/>
-      <c r="P10" s="83"/>
+      <c r="P10" s="139"/>
       <c r="Q10" s="84"/>
       <c r="R10" s="88"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="85"/>
-    </row>
-    <row r="11" spans="1:28" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="139"/>
+      <c r="T10" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="U10" s="154"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="147" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ10" s="148"/>
+      <c r="AK10" s="149"/>
+    </row>
+    <row r="11" spans="1:41" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="76"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
       <c r="D11" s="65"/>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="105"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="65"/>
       <c r="H11" s="90"/>
       <c r="I11" s="91"/>
       <c r="J11" s="92"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
+      <c r="K11" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="132"/>
+      <c r="M11" s="133"/>
       <c r="N11" s="93"/>
       <c r="O11" s="94"/>
-      <c r="P11" s="65"/>
+      <c r="P11" s="140"/>
       <c r="Q11" s="90"/>
       <c r="R11" s="94"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="91"/>
-      <c r="AA11"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S11" s="140"/>
+      <c r="T11" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="U11" s="151"/>
+      <c r="V11" s="152"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="152"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ11" s="151"/>
+      <c r="AK11" s="152"/>
+      <c r="AN11"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -1684,30 +1958,61 @@
       <c r="O12" s="51">
         <v>8.7802485000000008</v>
       </c>
-      <c r="P12" s="7"/>
+      <c r="P12" s="143"/>
       <c r="Q12" s="49">
         <v>12302</v>
       </c>
       <c r="R12" s="57">
         <v>39.129743300000001</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="49">
+      <c r="S12" s="143"/>
+      <c r="T12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="49">
         <v>1168</v>
       </c>
-      <c r="U12" s="25">
+      <c r="Z12" s="25">
         <v>19.743069599999998</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="143"/>
+      <c r="AB12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="143"/>
+      <c r="AI12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1746,30 +2051,61 @@
       <c r="O13" s="51">
         <v>43.018312600000002</v>
       </c>
-      <c r="P13" s="7"/>
+      <c r="P13" s="143"/>
       <c r="Q13" s="49">
         <v>3875</v>
       </c>
       <c r="R13" s="48">
         <v>12.3254556</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="49">
+      <c r="S13" s="143"/>
+      <c r="T13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="49">
         <v>1774</v>
       </c>
-      <c r="U13" s="25">
+      <c r="Z13" s="25">
         <v>29.986477300000001</v>
       </c>
-      <c r="V13" s="24"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="14" t="s">
+      <c r="AA13" s="143"/>
+      <c r="AB13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="143"/>
+      <c r="AI13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1808,30 +2144,61 @@
       <c r="O14" s="51">
         <v>2.7959451</v>
       </c>
-      <c r="P14" s="7"/>
+      <c r="P14" s="143"/>
       <c r="Q14" s="49">
         <v>3865</v>
       </c>
       <c r="R14" s="48">
         <v>12.293647999999999</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="49">
+      <c r="S14" s="143"/>
+      <c r="T14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="49">
         <v>1041</v>
       </c>
-      <c r="U14" s="25">
+      <c r="Z14" s="25">
         <v>17.596348899999999</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="15" t="s">
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1870,34 +2237,65 @@
       <c r="O15" s="60">
         <v>45.405493800000002</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="P15" s="144"/>
       <c r="Q15" s="49">
         <v>11397</v>
       </c>
       <c r="R15" s="48">
         <v>36.251153000000002</v>
       </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="49">
+      <c r="S15" s="144"/>
+      <c r="T15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="49">
         <v>1933</v>
       </c>
-      <c r="U15" s="26">
+      <c r="Z15" s="26">
         <v>32.674104100000001</v>
       </c>
-      <c r="V15" s="24"/>
-      <c r="W15" s="11" t="s">
+      <c r="AA15" s="144"/>
+      <c r="AB15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="X15" s="29" t="s">
+      <c r="AD15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="18" t="s">
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" s="144"/>
+      <c r="AI15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -1913,21 +2311,34 @@
       <c r="M16" s="32"/>
       <c r="N16" s="33"/>
       <c r="O16" s="40"/>
-      <c r="P16" s="33"/>
+      <c r="P16" s="145"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="39"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
       <c r="W16" s="33"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="54"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X16" s="33"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="54"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -1966,29 +2377,60 @@
       <c r="O17" s="51">
         <v>26.398026300000001</v>
       </c>
-      <c r="P17" s="7"/>
+      <c r="P17" s="143"/>
       <c r="Q17" s="49">
         <v>8590</v>
       </c>
       <c r="R17" s="57">
         <v>61.243405099999997</v>
       </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="49">
+      <c r="S17" s="143"/>
+      <c r="T17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="49">
         <v>672</v>
       </c>
-      <c r="U17" s="25">
+      <c r="Z17" s="25">
         <v>39.482961199999998</v>
       </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="54"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="54"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -2027,33 +2469,64 @@
       <c r="O18" s="52">
         <v>73.601973700000002</v>
       </c>
-      <c r="P18" s="7"/>
+      <c r="P18" s="143"/>
       <c r="Q18" s="49">
         <v>5436</v>
       </c>
       <c r="R18" s="48">
         <v>38.756594900000003</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="49">
+      <c r="S18" s="143"/>
+      <c r="T18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="49">
         <v>1030</v>
       </c>
-      <c r="U18" s="26">
+      <c r="Z18" s="26">
         <v>60.517038800000002</v>
       </c>
-      <c r="V18" s="24"/>
-      <c r="W18" s="11" t="s">
+      <c r="AA18" s="143"/>
+      <c r="AB18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="X18" s="29" t="s">
+      <c r="AD18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="54"/>
-    </row>
-    <row r="19" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="143"/>
+      <c r="AI18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="54"/>
+    </row>
+    <row r="19" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -2069,21 +2542,34 @@
       <c r="M19" s="32"/>
       <c r="N19" s="33"/>
       <c r="O19" s="40"/>
-      <c r="P19" s="33"/>
+      <c r="P19" s="145"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="39"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
       <c r="W19" s="33"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="54"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X19" s="33"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="54"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
@@ -2122,29 +2608,60 @@
       <c r="O20" s="51">
         <v>49.318801100000002</v>
       </c>
-      <c r="P20" s="7"/>
+      <c r="P20" s="143"/>
       <c r="Q20" s="49">
         <v>6254</v>
       </c>
       <c r="R20" s="48">
         <v>24.040901099999999</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="49">
+      <c r="S20" s="143"/>
+      <c r="T20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="49">
         <v>1998</v>
       </c>
-      <c r="U20" s="25">
+      <c r="Z20" s="25">
         <v>48.530483400000001</v>
       </c>
-      <c r="V20" s="24"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="54"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="54"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
@@ -2183,33 +2700,64 @@
       <c r="O21" s="52">
         <v>50.681198899999998</v>
       </c>
-      <c r="P21" s="7"/>
+      <c r="P21" s="143"/>
       <c r="Q21" s="49">
         <v>19760</v>
       </c>
       <c r="R21" s="57">
         <v>75.959098900000001</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="49">
+      <c r="S21" s="143"/>
+      <c r="T21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="49">
         <v>2119</v>
       </c>
-      <c r="U21" s="26">
+      <c r="Z21" s="26">
         <v>51.469516599999999</v>
       </c>
-      <c r="V21" s="24"/>
-      <c r="W21" s="11" t="s">
+      <c r="AA21" s="143"/>
+      <c r="AB21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="X21" s="29" t="s">
+      <c r="AD21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="54"/>
-    </row>
-    <row r="22" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="54"/>
+    </row>
+    <row r="22" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -2225,21 +2773,34 @@
       <c r="M22" s="32"/>
       <c r="N22" s="33"/>
       <c r="O22" s="40"/>
-      <c r="P22" s="33"/>
+      <c r="P22" s="145"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="39"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
       <c r="W22" s="33"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="54"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X22" s="33"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="54"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
@@ -2278,29 +2839,60 @@
       <c r="O23" s="51">
         <v>39.328984200000001</v>
       </c>
-      <c r="P23" s="7"/>
+      <c r="P23" s="143"/>
       <c r="Q23" s="49">
         <v>23012</v>
       </c>
       <c r="R23" s="57">
         <v>73.908016399999994</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="49">
+      <c r="S23" s="143"/>
+      <c r="T23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="49">
         <v>2210</v>
       </c>
-      <c r="U23" s="25">
+      <c r="Z23" s="25">
         <v>46.292417299999997</v>
       </c>
-      <c r="V23" s="24"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="54"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA23" s="143"/>
+      <c r="AB23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="143"/>
+      <c r="AI23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="54"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
@@ -2339,33 +2931,64 @@
       <c r="O24" s="52">
         <v>60.671015799999999</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="143"/>
       <c r="Q24" s="49">
         <v>8124</v>
       </c>
       <c r="R24" s="48">
         <v>26.091983599999999</v>
       </c>
-      <c r="S24" s="7"/>
-      <c r="T24" s="49">
+      <c r="S24" s="143"/>
+      <c r="T24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="49">
         <v>2564</v>
       </c>
-      <c r="U24" s="26">
+      <c r="Z24" s="26">
         <v>53.707582700000003</v>
       </c>
-      <c r="V24" s="24"/>
-      <c r="W24" s="11" t="s">
+      <c r="AA24" s="143"/>
+      <c r="AB24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X24" s="29" t="s">
+      <c r="AD24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="54"/>
-    </row>
-    <row r="25" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH24" s="143"/>
+      <c r="AI24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL24" s="54"/>
+      <c r="AM24" s="54"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="54"/>
+    </row>
+    <row r="25" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -2381,21 +3004,34 @@
       <c r="M25" s="32"/>
       <c r="N25" s="33"/>
       <c r="O25" s="40"/>
-      <c r="P25" s="33"/>
+      <c r="P25" s="145"/>
       <c r="Q25" s="43"/>
       <c r="R25" s="39"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
       <c r="W25" s="33"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="54"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X25" s="33"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="54"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="54"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
@@ -2434,33 +3070,64 @@
       <c r="O26" s="52">
         <v>87.163814200000004</v>
       </c>
-      <c r="P26" s="7"/>
+      <c r="P26" s="143"/>
       <c r="Q26" s="49">
         <v>10602</v>
       </c>
       <c r="R26" s="48">
         <v>34.9520324</v>
       </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="49">
+      <c r="S26" s="143"/>
+      <c r="T26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="49">
         <v>2191</v>
       </c>
-      <c r="U26" s="26">
+      <c r="Z26" s="26">
         <v>72.286374100000003</v>
       </c>
-      <c r="V26" s="24"/>
-      <c r="W26" s="11" t="s">
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="X26" s="29" t="s">
+      <c r="AD26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="54"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH26" s="143"/>
+      <c r="AI26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="54"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
@@ -2499,29 +3166,60 @@
       <c r="O27" s="51">
         <v>12.836185800000001</v>
       </c>
-      <c r="P27" s="7"/>
+      <c r="P27" s="143"/>
       <c r="Q27" s="49">
         <v>19731</v>
       </c>
       <c r="R27" s="57">
         <v>65.047967600000007</v>
       </c>
-      <c r="S27" s="7"/>
-      <c r="T27" s="49">
+      <c r="S27" s="143"/>
+      <c r="T27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="49">
         <v>840</v>
       </c>
-      <c r="U27" s="25">
+      <c r="Z27" s="25">
         <v>27.7136259</v>
       </c>
-      <c r="V27" s="24"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="54"/>
-    </row>
-    <row r="28" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA27" s="143"/>
+      <c r="AB27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="143"/>
+      <c r="AI27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL27" s="54"/>
+      <c r="AM27" s="54"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="54"/>
+    </row>
+    <row r="28" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -2537,21 +3235,34 @@
       <c r="M28" s="32"/>
       <c r="N28" s="33"/>
       <c r="O28" s="40"/>
-      <c r="P28" s="33"/>
+      <c r="P28" s="145"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="39"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
       <c r="W28" s="33"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="54"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X28" s="33"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="54"/>
+      <c r="AM28" s="54"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="54"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
@@ -2590,33 +3301,64 @@
       <c r="O29" s="52">
         <v>82.217188199999995</v>
       </c>
-      <c r="P29" s="7"/>
+      <c r="P29" s="143"/>
       <c r="Q29" s="49">
         <v>9144</v>
       </c>
       <c r="R29" s="57">
         <v>32.700353999999997</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="49">
+      <c r="S29" s="143"/>
+      <c r="T29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="49">
         <v>2178</v>
       </c>
-      <c r="U29" s="26">
+      <c r="Z29" s="26">
         <v>41.375379899999999</v>
       </c>
-      <c r="V29" s="24"/>
-      <c r="W29" s="11" t="s">
+      <c r="AA29" s="143"/>
+      <c r="AB29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X29" s="29" t="s">
+      <c r="AD29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="54"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG29" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH29" s="143"/>
+      <c r="AI29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="54"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
@@ -2655,29 +3397,60 @@
       <c r="O30" s="51">
         <v>4.9695596999999996</v>
       </c>
-      <c r="P30" s="7"/>
+      <c r="P30" s="143"/>
       <c r="Q30" s="49">
         <v>4705</v>
       </c>
       <c r="R30" s="48">
         <v>16.825805500000001</v>
       </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="49">
+      <c r="S30" s="143"/>
+      <c r="T30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="49">
         <v>1268</v>
       </c>
-      <c r="U30" s="25">
+      <c r="Z30" s="25">
         <v>24.088145900000001</v>
       </c>
-      <c r="V30" s="24"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="54"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA30" s="143"/>
+      <c r="AB30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="143"/>
+      <c r="AI30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="54"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2716,29 +3489,60 @@
       <c r="O31" s="51">
         <v>1.5290953</v>
       </c>
-      <c r="P31" s="7"/>
+      <c r="P31" s="143"/>
       <c r="Q31" s="49">
         <v>2860</v>
       </c>
       <c r="R31" s="48">
         <v>10.227800999999999</v>
       </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="49">
+      <c r="S31" s="143"/>
+      <c r="T31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="49">
         <v>313</v>
       </c>
-      <c r="U31" s="25">
+      <c r="Z31" s="25">
         <v>5.9460486299999999</v>
       </c>
-      <c r="V31" s="24"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="54"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA31" s="143"/>
+      <c r="AB31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="143"/>
+      <c r="AI31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="54"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
@@ -2777,29 +3581,60 @@
       <c r="O32" s="51">
         <v>11.284156899999999</v>
       </c>
-      <c r="P32" s="7"/>
+      <c r="P32" s="143"/>
       <c r="Q32" s="49">
         <v>11254</v>
       </c>
       <c r="R32" s="48">
         <v>40.246039400000001</v>
       </c>
-      <c r="S32" s="7"/>
-      <c r="T32" s="49">
+      <c r="S32" s="143"/>
+      <c r="T32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="49">
         <v>1505</v>
       </c>
-      <c r="U32" s="25">
+      <c r="Z32" s="25">
         <v>28.590425499999998</v>
       </c>
-      <c r="V32" s="24"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="54"/>
-    </row>
-    <row r="33" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA32" s="143"/>
+      <c r="AB32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="143"/>
+      <c r="AI32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL32" s="54"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="54"/>
+    </row>
+    <row r="33" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -2815,21 +3650,34 @@
       <c r="M33" s="32"/>
       <c r="N33" s="33"/>
       <c r="O33" s="40"/>
-      <c r="P33" s="33"/>
+      <c r="P33" s="145"/>
       <c r="Q33" s="43"/>
       <c r="R33" s="39"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
       <c r="W33" s="33"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="54"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X33" s="33"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="54"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
@@ -2868,29 +3716,60 @@
       <c r="O34" s="52">
         <v>66.124469599999998</v>
       </c>
-      <c r="P34" s="7"/>
+      <c r="P34" s="143"/>
       <c r="Q34" s="49">
         <v>4318</v>
       </c>
       <c r="R34" s="48">
         <v>29.201325499999999</v>
       </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="49">
+      <c r="S34" s="143"/>
+      <c r="T34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="49">
         <v>1018</v>
       </c>
-      <c r="U34" s="26">
+      <c r="Z34" s="26">
         <v>55.476839200000001</v>
       </c>
-      <c r="V34" s="24"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="54"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="143"/>
+      <c r="AI34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="54"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="54"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>32</v>
       </c>
@@ -2929,33 +3808,64 @@
       <c r="O35" s="51">
         <v>33.875530400000002</v>
       </c>
-      <c r="P35" s="7"/>
+      <c r="P35" s="143"/>
       <c r="Q35" s="49">
         <v>10469</v>
       </c>
       <c r="R35" s="57">
         <v>70.798674500000004</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="49">
+      <c r="S35" s="143"/>
+      <c r="T35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="49">
         <v>817</v>
       </c>
-      <c r="U35" s="25">
+      <c r="Z35" s="25">
         <v>44.523160799999999</v>
       </c>
-      <c r="V35" s="24"/>
-      <c r="W35" s="11" t="s">
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X35" s="29" t="s">
+      <c r="AD35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="54"/>
-    </row>
-    <row r="36" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG35" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH35" s="143"/>
+      <c r="AI35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="54"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="54"/>
+    </row>
+    <row r="36" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -2971,21 +3881,34 @@
       <c r="M36" s="32"/>
       <c r="N36" s="33"/>
       <c r="O36" s="40"/>
-      <c r="P36" s="33"/>
+      <c r="P36" s="145"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="39"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
+      <c r="S36" s="145"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
       <c r="W36" s="33"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="54"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X36" s="33"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="145"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="145"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="54"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="54"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
@@ -3024,29 +3947,60 @@
       <c r="O37" s="51">
         <v>1.080497</v>
       </c>
-      <c r="P37" s="7"/>
+      <c r="P37" s="143"/>
       <c r="Q37" s="49">
         <v>11772</v>
       </c>
       <c r="R37" s="48">
         <v>29.451352199999999</v>
       </c>
-      <c r="S37" s="7"/>
-      <c r="T37" s="49">
+      <c r="S37" s="143"/>
+      <c r="T37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="49">
         <v>547</v>
       </c>
-      <c r="U37" s="25">
+      <c r="Z37" s="25">
         <v>14.3644958</v>
       </c>
-      <c r="V37" s="24"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="54"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA37" s="143"/>
+      <c r="AB37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="143"/>
+      <c r="AI37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="54"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
@@ -3085,33 +4039,64 @@
       <c r="O38" s="52">
         <v>67.071853099999998</v>
       </c>
-      <c r="P38" s="7"/>
+      <c r="P38" s="143"/>
       <c r="Q38" s="49">
         <v>8910</v>
       </c>
       <c r="R38" s="48">
         <v>22.2911611</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="49">
+      <c r="S38" s="143"/>
+      <c r="T38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="49">
         <v>1890</v>
       </c>
-      <c r="U38" s="26">
+      <c r="Z38" s="26">
         <v>49.632352900000001</v>
       </c>
-      <c r="V38" s="24"/>
-      <c r="W38" s="11" t="s">
+      <c r="AA38" s="143"/>
+      <c r="AB38" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X38" s="29" t="s">
+      <c r="AD38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="54"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG38" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH38" s="143"/>
+      <c r="AI38" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="54"/>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>36</v>
       </c>
@@ -3150,29 +4135,60 @@
       <c r="O39" s="51">
         <v>31.8476499</v>
       </c>
-      <c r="P39" s="7"/>
+      <c r="P39" s="143"/>
       <c r="Q39" s="49">
         <v>19289</v>
       </c>
       <c r="R39" s="57">
         <v>48.257486700000001</v>
       </c>
-      <c r="S39" s="7"/>
-      <c r="T39" s="49">
+      <c r="S39" s="143"/>
+      <c r="T39" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="49">
         <v>1371</v>
       </c>
-      <c r="U39" s="25">
+      <c r="Z39" s="25">
         <v>36.003151299999999</v>
       </c>
-      <c r="V39" s="24"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="54"/>
-    </row>
-    <row r="40" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA39" s="143"/>
+      <c r="AB39" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="143"/>
+      <c r="AI39" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="54"/>
+    </row>
+    <row r="40" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -3188,21 +4204,34 @@
       <c r="M40" s="32"/>
       <c r="N40" s="33"/>
       <c r="O40" s="40"/>
-      <c r="P40" s="33"/>
+      <c r="P40" s="145"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="39"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
+      <c r="S40" s="145"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
       <c r="W40" s="33"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="54"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X40" s="33"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="145"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="145"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="54"/>
+      <c r="AM40" s="54"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="54"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
@@ -3241,29 +4270,60 @@
       <c r="O41" s="51">
         <v>15.153278999999999</v>
       </c>
-      <c r="P41" s="7"/>
+      <c r="P41" s="143"/>
       <c r="Q41" s="49">
         <v>26060</v>
       </c>
       <c r="R41" s="57">
         <v>68.954568300000005</v>
       </c>
-      <c r="S41" s="7"/>
-      <c r="T41" s="49">
+      <c r="S41" s="143"/>
+      <c r="T41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="49">
         <v>1966</v>
       </c>
-      <c r="U41" s="25">
+      <c r="Z41" s="25">
         <v>36.066776699999998</v>
       </c>
-      <c r="V41" s="24"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="54"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA41" s="143"/>
+      <c r="AB41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="54"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>41</v>
       </c>
@@ -3302,33 +4362,64 @@
       <c r="O42" s="52">
         <v>84.846721000000002</v>
       </c>
-      <c r="P42" s="7"/>
+      <c r="P42" s="143"/>
       <c r="Q42" s="49">
         <v>11733</v>
       </c>
       <c r="R42" s="48">
         <v>31.045431700000002</v>
       </c>
-      <c r="S42" s="7"/>
-      <c r="T42" s="49">
+      <c r="S42" s="143"/>
+      <c r="T42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="49">
         <v>3485</v>
       </c>
-      <c r="U42" s="26">
+      <c r="Z42" s="26">
         <v>63.933223300000002</v>
       </c>
-      <c r="V42" s="24"/>
-      <c r="W42" s="11" t="s">
+      <c r="AA42" s="143"/>
+      <c r="AB42" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC42" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X42" s="29" t="s">
+      <c r="AD42" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="54"/>
-    </row>
-    <row r="43" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG42" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH42" s="143"/>
+      <c r="AI42" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL42" s="54"/>
+      <c r="AM42" s="54"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="54"/>
+    </row>
+    <row r="43" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -3344,21 +4435,34 @@
       <c r="M43" s="32"/>
       <c r="N43" s="33"/>
       <c r="O43" s="40"/>
-      <c r="P43" s="33"/>
+      <c r="P43" s="145"/>
       <c r="Q43" s="43"/>
       <c r="R43" s="39"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
+      <c r="S43" s="145"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
       <c r="W43" s="33"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="54"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X43" s="33"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="145"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="145"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="54"/>
+      <c r="AM43" s="54"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="54"/>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>45</v>
       </c>
@@ -3397,29 +4501,60 @@
       <c r="O44" s="51">
         <v>1.2116762000000001</v>
       </c>
-      <c r="P44" s="7"/>
+      <c r="P44" s="143"/>
       <c r="Q44" s="49">
         <v>5515</v>
       </c>
       <c r="R44" s="48">
         <v>10.2909071</v>
       </c>
-      <c r="S44" s="7"/>
-      <c r="T44" s="49">
+      <c r="S44" s="143"/>
+      <c r="T44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="49">
         <v>558</v>
       </c>
-      <c r="U44" s="25">
+      <c r="Z44" s="25">
         <v>9.0349740900000004</v>
       </c>
-      <c r="V44" s="24"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="54"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA44" s="143"/>
+      <c r="AB44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD44" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="143"/>
+      <c r="AI44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK44" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL44" s="54"/>
+      <c r="AM44" s="54"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="54"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3458,33 +4593,64 @@
       <c r="O45" s="52">
         <v>37.929135299999999</v>
       </c>
-      <c r="P45" s="7"/>
+      <c r="P45" s="143"/>
       <c r="Q45" s="49">
         <v>4169</v>
       </c>
       <c r="R45" s="48">
         <v>7.7792912999999997</v>
       </c>
-      <c r="S45" s="7"/>
-      <c r="T45" s="49">
+      <c r="S45" s="143"/>
+      <c r="T45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="49">
         <v>1410</v>
       </c>
-      <c r="U45" s="25">
+      <c r="Z45" s="25">
         <v>22.830310900000001</v>
       </c>
-      <c r="V45" s="24"/>
-      <c r="W45" s="11" t="s">
+      <c r="AA45" s="143"/>
+      <c r="AB45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="X45" s="29" t="s">
+      <c r="AD45" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="54"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG45" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH45" s="143"/>
+      <c r="AI45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL45" s="54"/>
+      <c r="AM45" s="54"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="54"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>45</v>
       </c>
@@ -3523,29 +4689,60 @@
       <c r="O46" s="51">
         <v>4.9201395000000003</v>
       </c>
-      <c r="P46" s="7"/>
+      <c r="P46" s="143"/>
       <c r="Q46" s="49">
         <v>6985</v>
       </c>
       <c r="R46" s="48">
         <v>13.0339049</v>
       </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="49">
+      <c r="S46" s="143"/>
+      <c r="T46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U46" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="49">
         <v>1520</v>
       </c>
-      <c r="U46" s="26">
+      <c r="Z46" s="26">
         <v>24.611398999999999</v>
       </c>
-      <c r="V46" s="24"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="54"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA46" s="143"/>
+      <c r="AB46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC46" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="143"/>
+      <c r="AI46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ46" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK46" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL46" s="54"/>
+      <c r="AM46" s="54"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="54"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -3584,29 +4781,60 @@
       <c r="O47" s="51">
         <v>37.672113099999997</v>
       </c>
-      <c r="P47" s="7"/>
+      <c r="P47" s="143"/>
       <c r="Q47" s="49">
         <v>10537</v>
       </c>
       <c r="R47" s="48">
         <v>19.661883499999998</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="49">
+      <c r="S47" s="143"/>
+      <c r="T47" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V47" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="49">
         <v>1167</v>
       </c>
-      <c r="U47" s="25">
+      <c r="Z47" s="25">
         <v>18.8957254</v>
       </c>
-      <c r="V47" s="24"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="54"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA47" s="143"/>
+      <c r="AB47" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD47" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="143"/>
+      <c r="AI47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ47" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL47" s="54"/>
+      <c r="AM47" s="54"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="54"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
@@ -3645,29 +4873,60 @@
       <c r="O48" s="51">
         <v>0.89957770000000004</v>
       </c>
-      <c r="P48" s="7"/>
+      <c r="P48" s="143"/>
       <c r="Q48" s="49">
         <v>13997</v>
       </c>
       <c r="R48" s="57">
         <v>26.118191499999998</v>
       </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="49">
+      <c r="S48" s="143"/>
+      <c r="T48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U48" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="49">
         <v>384</v>
       </c>
-      <c r="U48" s="25">
+      <c r="Z48" s="25">
         <v>6.2176165799999996</v>
       </c>
-      <c r="V48" s="24"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="54"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA48" s="143"/>
+      <c r="AB48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC48" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="143"/>
+      <c r="AI48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK48" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL48" s="54"/>
+      <c r="AM48" s="54"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="54"/>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>45</v>
       </c>
@@ -3706,29 +4965,60 @@
       <c r="O49" s="51">
         <v>17.367358200000002</v>
       </c>
-      <c r="P49" s="7"/>
+      <c r="P49" s="143"/>
       <c r="Q49" s="49">
         <v>12388</v>
       </c>
       <c r="R49" s="48">
         <v>23.115821700000001</v>
       </c>
-      <c r="S49" s="7"/>
-      <c r="T49" s="49">
+      <c r="S49" s="143"/>
+      <c r="T49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V49" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="49">
         <v>1137</v>
       </c>
-      <c r="U49" s="25">
+      <c r="Z49" s="25">
         <v>18.409974099999999</v>
       </c>
-      <c r="V49" s="24"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="54"/>
-    </row>
-    <row r="50" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA49" s="143"/>
+      <c r="AB49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD49" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="143"/>
+      <c r="AI49" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL49" s="54"/>
+      <c r="AM49" s="54"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="54"/>
+    </row>
+    <row r="50" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -3744,21 +5034,34 @@
       <c r="M50" s="32"/>
       <c r="N50" s="33"/>
       <c r="O50" s="40"/>
-      <c r="P50" s="33"/>
+      <c r="P50" s="145"/>
       <c r="Q50" s="43"/>
       <c r="R50" s="39"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
+      <c r="S50" s="145"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
       <c r="W50" s="33"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="54"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X50" s="33"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="145"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="33"/>
+      <c r="AF50" s="33"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="145"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="54"/>
+      <c r="AM50" s="54"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="54"/>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>53</v>
       </c>
@@ -3797,33 +5100,64 @@
       <c r="O51" s="51">
         <v>100</v>
       </c>
-      <c r="P51" s="7"/>
+      <c r="P51" s="143"/>
       <c r="Q51" s="49">
         <v>15883</v>
       </c>
       <c r="R51" s="51">
         <v>100</v>
       </c>
-      <c r="S51" s="7"/>
-      <c r="T51" s="49">
+      <c r="S51" s="143"/>
+      <c r="T51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="U51" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="49">
         <v>1943</v>
       </c>
-      <c r="U51" s="25">
+      <c r="Z51" s="25">
         <v>100</v>
       </c>
-      <c r="V51" s="24"/>
-      <c r="W51" s="11" t="s">
+      <c r="AA51" s="143"/>
+      <c r="AB51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="X51" s="11" t="s">
+      <c r="AD51" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="54"/>
-    </row>
-    <row r="52" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE51" s="24"/>
+      <c r="AF51" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH51" s="143"/>
+      <c r="AI51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ51" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL51" s="54"/>
+      <c r="AM51" s="54"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="54"/>
+    </row>
+    <row r="52" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -3839,21 +5173,34 @@
       <c r="M52" s="32"/>
       <c r="N52" s="33"/>
       <c r="O52" s="40"/>
-      <c r="P52" s="33"/>
+      <c r="P52" s="145"/>
       <c r="Q52" s="43"/>
       <c r="R52" s="39"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
+      <c r="S52" s="145"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
       <c r="W52" s="33"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="54"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X52" s="33"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="145"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="33"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="145"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="54"/>
+      <c r="AM52" s="54"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="54"/>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>56</v>
       </c>
@@ -3892,29 +5239,60 @@
       <c r="O53" s="52">
         <v>75.497806299999993</v>
       </c>
-      <c r="P53" s="7"/>
+      <c r="P53" s="143"/>
       <c r="Q53" s="49">
         <v>7669</v>
       </c>
       <c r="R53" s="48">
         <v>27.198893500000001</v>
       </c>
-      <c r="S53" s="7"/>
-      <c r="T53" s="49">
+      <c r="S53" s="143"/>
+      <c r="T53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U53" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V53" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="49">
         <v>1742</v>
       </c>
-      <c r="U53" s="26">
+      <c r="Z53" s="26">
         <v>58.008657999999997</v>
       </c>
-      <c r="V53" s="24"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="54"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA53" s="143"/>
+      <c r="AB53" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="143"/>
+      <c r="AI53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ53" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK53" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL53" s="54"/>
+      <c r="AM53" s="54"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="54"/>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>56</v>
       </c>
@@ -3953,33 +5331,64 @@
       <c r="O54" s="51">
         <v>24.502193699999999</v>
       </c>
-      <c r="P54" s="7"/>
+      <c r="P54" s="143"/>
       <c r="Q54" s="49">
         <v>20527</v>
       </c>
       <c r="R54" s="57">
         <v>72.801106500000003</v>
       </c>
-      <c r="S54" s="7"/>
-      <c r="T54" s="49">
+      <c r="S54" s="143"/>
+      <c r="T54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="49">
         <v>1261</v>
       </c>
-      <c r="U54" s="25">
+      <c r="Z54" s="25">
         <v>41.991342000000003</v>
       </c>
-      <c r="V54" s="24"/>
-      <c r="W54" s="11" t="s">
+      <c r="AA54" s="143"/>
+      <c r="AB54" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X54" s="29" t="s">
+      <c r="AD54" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="54"/>
-    </row>
-    <row r="55" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG54" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH54" s="143"/>
+      <c r="AI54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL54" s="54"/>
+      <c r="AM54" s="54"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="54"/>
+    </row>
+    <row r="55" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -3995,21 +5404,34 @@
       <c r="M55" s="32"/>
       <c r="N55" s="33"/>
       <c r="O55" s="40"/>
-      <c r="P55" s="33"/>
+      <c r="P55" s="145"/>
       <c r="Q55" s="43"/>
       <c r="R55" s="39"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
+      <c r="S55" s="145"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
       <c r="W55" s="33"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="54"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X55" s="33"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="145"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="145"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="54"/>
+      <c r="AM55" s="54"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="54"/>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>60</v>
       </c>
@@ -4048,29 +5470,60 @@
       <c r="O56" s="52">
         <v>89.894215599999995</v>
       </c>
-      <c r="P56" s="7"/>
+      <c r="P56" s="143"/>
       <c r="Q56" s="49">
         <v>10391</v>
       </c>
       <c r="R56" s="57">
         <v>44.967111000000003</v>
       </c>
-      <c r="S56" s="7"/>
-      <c r="T56" s="49">
+      <c r="S56" s="143"/>
+      <c r="T56" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="49">
         <v>1158</v>
       </c>
-      <c r="U56" s="26">
+      <c r="Z56" s="26">
         <v>31.2045271</v>
       </c>
-      <c r="V56" s="24"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="54"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA56" s="143"/>
+      <c r="AB56" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC56" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD56" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="27"/>
+      <c r="AH56" s="143"/>
+      <c r="AI56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ56" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK56" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL56" s="54"/>
+      <c r="AM56" s="54"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="54"/>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>60</v>
       </c>
@@ -4109,29 +5562,60 @@
       <c r="O57" s="51">
         <v>2.0481657000000002</v>
       </c>
-      <c r="P57" s="7"/>
+      <c r="P57" s="143"/>
       <c r="Q57" s="49">
         <v>2464</v>
       </c>
       <c r="R57" s="48">
         <v>10.662973900000001</v>
       </c>
-      <c r="S57" s="7"/>
-      <c r="T57" s="49">
+      <c r="S57" s="143"/>
+      <c r="T57" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U57" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V57" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="49">
         <v>621</v>
       </c>
-      <c r="U57" s="25">
+      <c r="Z57" s="25">
         <v>16.734034000000001</v>
       </c>
-      <c r="V57" s="24"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="54"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA57" s="143"/>
+      <c r="AB57" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC57" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD57" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE57" s="24"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="143"/>
+      <c r="AI57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ57" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK57" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL57" s="54"/>
+      <c r="AM57" s="54"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="54"/>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>60</v>
       </c>
@@ -4170,29 +5654,60 @@
       <c r="O58" s="51">
         <v>4.3214044999999999</v>
       </c>
-      <c r="P58" s="7"/>
+      <c r="P58" s="143"/>
       <c r="Q58" s="49">
         <v>4423</v>
       </c>
       <c r="R58" s="48">
         <v>19.140557399999999</v>
       </c>
-      <c r="S58" s="7"/>
-      <c r="T58" s="49">
+      <c r="S58" s="143"/>
+      <c r="T58" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="49">
         <v>1053</v>
       </c>
-      <c r="U58" s="25">
+      <c r="Z58" s="25">
         <v>28.375101099999998</v>
       </c>
-      <c r="V58" s="24"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="54"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA58" s="143"/>
+      <c r="AB58" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD58" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE58" s="24"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="27"/>
+      <c r="AH58" s="143"/>
+      <c r="AI58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ58" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK58" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL58" s="54"/>
+      <c r="AM58" s="54"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="54"/>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>60</v>
       </c>
@@ -4231,33 +5746,64 @@
       <c r="O59" s="51">
         <v>3.7362142999999999</v>
       </c>
-      <c r="P59" s="7"/>
+      <c r="P59" s="143"/>
       <c r="Q59" s="49">
         <v>5830</v>
       </c>
       <c r="R59" s="48">
         <v>25.229357799999999</v>
       </c>
-      <c r="S59" s="7"/>
-      <c r="T59" s="49">
+      <c r="S59" s="143"/>
+      <c r="T59" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U59" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="49">
         <v>879</v>
       </c>
-      <c r="U59" s="25">
+      <c r="Z59" s="25">
         <v>23.686337900000002</v>
       </c>
-      <c r="V59" s="24"/>
-      <c r="W59" s="11" t="s">
+      <c r="AA59" s="143"/>
+      <c r="AB59" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC59" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X59" s="29" t="s">
+      <c r="AD59" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="54"/>
-    </row>
-    <row r="60" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG59" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH59" s="143"/>
+      <c r="AI59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ59" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK59" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL59" s="54"/>
+      <c r="AM59" s="54"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="54"/>
+    </row>
+    <row r="60" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -4273,21 +5819,34 @@
       <c r="M60" s="32"/>
       <c r="N60" s="33"/>
       <c r="O60" s="40"/>
-      <c r="P60" s="33"/>
+      <c r="P60" s="145"/>
       <c r="Q60" s="43"/>
       <c r="R60" s="39"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
+      <c r="S60" s="145"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
       <c r="W60" s="33"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="54"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X60" s="33"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="145"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="33"/>
+      <c r="AG60" s="35"/>
+      <c r="AH60" s="145"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="54"/>
+      <c r="AM60" s="54"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="54"/>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>66</v>
       </c>
@@ -4326,29 +5885,60 @@
       <c r="O61" s="52">
         <v>67.321937300000002</v>
       </c>
-      <c r="P61" s="7"/>
+      <c r="P61" s="143"/>
       <c r="Q61" s="49">
         <v>13163</v>
       </c>
       <c r="R61" s="57">
         <v>61.428971400000002</v>
       </c>
-      <c r="S61" s="7"/>
-      <c r="T61" s="49">
+      <c r="S61" s="143"/>
+      <c r="T61" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="U61" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="V61" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="49">
         <v>1146</v>
       </c>
-      <c r="U61" s="25">
+      <c r="Z61" s="25">
         <v>42.586399100000001</v>
       </c>
-      <c r="V61" s="24"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="54"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA61" s="143"/>
+      <c r="AB61" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC61" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD61" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE61" s="24"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="27"/>
+      <c r="AH61" s="143"/>
+      <c r="AI61" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ61" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK61" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL61" s="54"/>
+      <c r="AM61" s="54"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="54"/>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>66</v>
       </c>
@@ -4387,33 +5977,64 @@
       <c r="O62" s="51">
         <v>32.678062699999998</v>
       </c>
-      <c r="P62" s="7"/>
+      <c r="P62" s="143"/>
       <c r="Q62" s="49">
         <v>8265</v>
       </c>
       <c r="R62" s="48">
         <v>38.571028599999998</v>
       </c>
-      <c r="S62" s="7"/>
-      <c r="T62" s="49">
+      <c r="S62" s="143"/>
+      <c r="T62" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="U62" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="V62" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="49">
         <v>1545</v>
       </c>
-      <c r="U62" s="26">
+      <c r="Z62" s="26">
         <v>57.413600899999999</v>
       </c>
-      <c r="V62" s="24"/>
-      <c r="W62" s="11" t="s">
+      <c r="AA62" s="143"/>
+      <c r="AB62" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC62" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="X62" s="29" t="s">
+      <c r="AD62" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="54"/>
-    </row>
-    <row r="63" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG62" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH62" s="143"/>
+      <c r="AI62" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ62" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK62" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL62" s="54"/>
+      <c r="AM62" s="54"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="54"/>
+    </row>
+    <row r="63" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="32"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
@@ -4429,21 +6050,34 @@
       <c r="M63" s="32"/>
       <c r="N63" s="33"/>
       <c r="O63" s="40"/>
-      <c r="P63" s="33"/>
+      <c r="P63" s="145"/>
       <c r="Q63" s="43"/>
       <c r="R63" s="39"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
+      <c r="S63" s="145"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
       <c r="W63" s="33"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="54"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X63" s="33"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="145"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="35"/>
+      <c r="AH63" s="145"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
+      <c r="AL63" s="54"/>
+      <c r="AM63" s="54"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="54"/>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>70</v>
       </c>
@@ -4482,33 +6116,64 @@
       <c r="O64" s="51">
         <v>24.121405800000002</v>
       </c>
-      <c r="P64" s="7"/>
+      <c r="P64" s="143"/>
       <c r="Q64" s="49">
         <v>7013</v>
       </c>
       <c r="R64" s="48">
         <v>22.320178200000001</v>
       </c>
-      <c r="S64" s="7"/>
-      <c r="T64" s="49">
+      <c r="S64" s="143"/>
+      <c r="T64" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U64" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V64" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="49">
         <v>937</v>
       </c>
-      <c r="U64" s="25">
+      <c r="Z64" s="25">
         <v>19.2917439</v>
       </c>
-      <c r="V64" s="24"/>
-      <c r="W64" s="11" t="s">
+      <c r="AA64" s="143"/>
+      <c r="AB64" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC64" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X64" s="29" t="s">
+      <c r="AD64" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="54"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG64" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH64" s="143"/>
+      <c r="AI64" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ64" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK64" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL64" s="54"/>
+      <c r="AM64" s="54"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="54"/>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>70</v>
       </c>
@@ -4547,29 +6212,60 @@
       <c r="O65" s="51">
         <v>4.4728434999999998</v>
       </c>
-      <c r="P65" s="7"/>
+      <c r="P65" s="143"/>
       <c r="Q65" s="49">
         <v>7552</v>
       </c>
       <c r="R65" s="57">
         <v>24.035646100000001</v>
       </c>
-      <c r="S65" s="7"/>
-      <c r="T65" s="49">
+      <c r="S65" s="143"/>
+      <c r="T65" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U65" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V65" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="49">
         <v>1003</v>
       </c>
-      <c r="U65" s="25">
+      <c r="Z65" s="25">
         <v>20.650607399999998</v>
       </c>
-      <c r="V65" s="24"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="54"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA65" s="143"/>
+      <c r="AB65" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC65" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD65" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="27"/>
+      <c r="AH65" s="143"/>
+      <c r="AI65" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ65" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK65" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL65" s="54"/>
+      <c r="AM65" s="54"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="54"/>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>70</v>
       </c>
@@ -4608,29 +6304,60 @@
       <c r="O66" s="51">
         <v>1.1448349</v>
       </c>
-      <c r="P66" s="7"/>
+      <c r="P66" s="143"/>
       <c r="Q66" s="49">
         <v>3415</v>
       </c>
       <c r="R66" s="48">
         <v>10.868873300000001</v>
       </c>
-      <c r="S66" s="7"/>
-      <c r="T66" s="49">
+      <c r="S66" s="143"/>
+      <c r="T66" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U66" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V66" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="49">
         <v>509</v>
       </c>
-      <c r="U66" s="25">
+      <c r="Z66" s="25">
         <v>10.47972</v>
       </c>
-      <c r="V66" s="24"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="54"/>
-      <c r="Z66" s="54"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="54"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA66" s="143"/>
+      <c r="AB66" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC66" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD66" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="27"/>
+      <c r="AH66" s="143"/>
+      <c r="AI66" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ66" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK66" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL66" s="54"/>
+      <c r="AM66" s="54"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="54"/>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>70</v>
       </c>
@@ -4669,29 +6396,60 @@
       <c r="O67" s="51">
         <v>24.8935037</v>
       </c>
-      <c r="P67" s="7"/>
+      <c r="P67" s="143"/>
       <c r="Q67" s="49">
         <v>3027</v>
       </c>
       <c r="R67" s="48">
         <v>9.6339910900000003</v>
       </c>
-      <c r="S67" s="7"/>
-      <c r="T67" s="49">
+      <c r="S67" s="143"/>
+      <c r="T67" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V67" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="49">
         <v>884</v>
       </c>
-      <c r="U67" s="25">
+      <c r="Z67" s="25">
         <v>18.200535299999999</v>
       </c>
-      <c r="V67" s="24"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="54"/>
-      <c r="Z67" s="54"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="54"/>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA67" s="143"/>
+      <c r="AB67" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC67" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD67" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="27"/>
+      <c r="AH67" s="143"/>
+      <c r="AI67" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK67" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL67" s="54"/>
+      <c r="AM67" s="54"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="54"/>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>70</v>
       </c>
@@ -4730,29 +6488,60 @@
       <c r="O68" s="51">
         <v>1.0383386999999999</v>
       </c>
-      <c r="P68" s="7"/>
+      <c r="P68" s="143"/>
       <c r="Q68" s="49">
         <v>2883</v>
       </c>
       <c r="R68" s="48">
         <v>9.1756842800000005</v>
       </c>
-      <c r="S68" s="7"/>
-      <c r="T68" s="49">
+      <c r="S68" s="143"/>
+      <c r="T68" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U68" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V68" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="49">
         <v>382</v>
       </c>
-      <c r="U68" s="25">
+      <c r="Z68" s="25">
         <v>7.8649372</v>
       </c>
-      <c r="V68" s="24"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="54"/>
-      <c r="Z68" s="54"/>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="54"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA68" s="143"/>
+      <c r="AB68" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC68" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD68" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE68" s="24"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="27"/>
+      <c r="AH68" s="143"/>
+      <c r="AI68" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ68" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK68" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL68" s="54"/>
+      <c r="AM68" s="54"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="54"/>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -4791,29 +6580,60 @@
       <c r="O69" s="52">
         <v>44.3290735</v>
       </c>
-      <c r="P69" s="7"/>
+      <c r="P69" s="143"/>
       <c r="Q69" s="49">
         <v>7530</v>
       </c>
       <c r="R69" s="48">
         <v>23.965627000000001</v>
       </c>
-      <c r="S69" s="7"/>
-      <c r="T69" s="49">
+      <c r="S69" s="143"/>
+      <c r="T69" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U69" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V69" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="49">
         <v>1142</v>
       </c>
-      <c r="U69" s="26">
+      <c r="Z69" s="26">
         <v>23.512456199999999</v>
       </c>
-      <c r="V69" s="24"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="54"/>
-      <c r="Z69" s="54"/>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="54"/>
-    </row>
-    <row r="70" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA69" s="143"/>
+      <c r="AB69" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC69" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD69" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="27"/>
+      <c r="AH69" s="143"/>
+      <c r="AI69" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ69" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK69" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL69" s="54"/>
+      <c r="AM69" s="54"/>
+      <c r="AN69" s="5"/>
+      <c r="AO69" s="54"/>
+    </row>
+    <row r="70" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -4829,21 +6649,34 @@
       <c r="M70" s="32"/>
       <c r="N70" s="33"/>
       <c r="O70" s="40"/>
-      <c r="P70" s="33"/>
+      <c r="P70" s="145"/>
       <c r="Q70" s="43"/>
       <c r="R70" s="39"/>
-      <c r="S70" s="33"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="33"/>
-      <c r="V70" s="33"/>
+      <c r="S70" s="145"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
       <c r="W70" s="33"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="54"/>
-      <c r="Z70" s="54"/>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="54"/>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X70" s="33"/>
+      <c r="Y70" s="43"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="145"/>
+      <c r="AB70" s="11"/>
+      <c r="AC70" s="11"/>
+      <c r="AD70" s="11"/>
+      <c r="AE70" s="33"/>
+      <c r="AF70" s="33"/>
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="145"/>
+      <c r="AI70" s="11"/>
+      <c r="AJ70" s="11"/>
+      <c r="AK70" s="11"/>
+      <c r="AL70" s="54"/>
+      <c r="AM70" s="54"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="54"/>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>78</v>
       </c>
@@ -4882,29 +6715,60 @@
       <c r="O71" s="51">
         <v>10.1137488</v>
       </c>
-      <c r="P71" s="7"/>
+      <c r="P71" s="143"/>
       <c r="Q71" s="49">
         <v>4765</v>
       </c>
       <c r="R71" s="48">
         <v>10.953015799999999</v>
       </c>
-      <c r="S71" s="7"/>
-      <c r="T71" s="49">
+      <c r="S71" s="143"/>
+      <c r="T71" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U71" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V71" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="49">
         <v>948</v>
       </c>
-      <c r="U71" s="25">
+      <c r="Z71" s="25">
         <v>17.961348999999998</v>
       </c>
-      <c r="V71" s="24"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="54"/>
-      <c r="Z71" s="54"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="54"/>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA71" s="143"/>
+      <c r="AB71" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC71" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD71" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE71" s="24"/>
+      <c r="AF71" s="7"/>
+      <c r="AG71" s="27"/>
+      <c r="AH71" s="143"/>
+      <c r="AI71" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ71" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK71" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL71" s="54"/>
+      <c r="AM71" s="54"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="54"/>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>78</v>
       </c>
@@ -4943,29 +6807,60 @@
       <c r="O72" s="51">
         <v>12.7843719</v>
       </c>
-      <c r="P72" s="7"/>
+      <c r="P72" s="143"/>
       <c r="Q72" s="49">
         <v>12335</v>
       </c>
       <c r="R72" s="57">
         <v>28.3537146</v>
       </c>
-      <c r="S72" s="7"/>
-      <c r="T72" s="49">
+      <c r="S72" s="143"/>
+      <c r="T72" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U72" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V72" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="49">
         <v>863</v>
       </c>
-      <c r="U72" s="25">
+      <c r="Z72" s="25">
         <v>16.350890499999998</v>
       </c>
-      <c r="V72" s="24"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="54"/>
-      <c r="Z72" s="54"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="54"/>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA72" s="143"/>
+      <c r="AB72" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC72" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD72" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="27"/>
+      <c r="AH72" s="143"/>
+      <c r="AI72" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ72" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK72" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL72" s="54"/>
+      <c r="AM72" s="54"/>
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="54"/>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>78</v>
       </c>
@@ -5004,29 +6899,60 @@
       <c r="O73" s="52">
         <v>34.619188899999997</v>
       </c>
-      <c r="P73" s="7"/>
+      <c r="P73" s="143"/>
       <c r="Q73" s="49">
         <v>4545</v>
       </c>
       <c r="R73" s="48">
         <v>10.4473152</v>
       </c>
-      <c r="S73" s="7"/>
-      <c r="T73" s="49">
+      <c r="S73" s="143"/>
+      <c r="T73" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U73" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V73" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="49">
         <v>858</v>
       </c>
-      <c r="U73" s="25">
+      <c r="Z73" s="25">
         <v>16.256157600000002</v>
       </c>
-      <c r="V73" s="24"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="54"/>
-      <c r="Z73" s="54"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="54"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA73" s="143"/>
+      <c r="AB73" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC73" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD73" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="27"/>
+      <c r="AH73" s="143"/>
+      <c r="AI73" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ73" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK73" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL73" s="54"/>
+      <c r="AM73" s="54"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="54"/>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>78</v>
       </c>
@@ -5065,29 +6991,60 @@
       <c r="O74" s="51">
         <v>3.6597428000000001</v>
       </c>
-      <c r="P74" s="7"/>
+      <c r="P74" s="143"/>
       <c r="Q74" s="49">
         <v>8351</v>
       </c>
       <c r="R74" s="48">
         <v>19.195936</v>
       </c>
-      <c r="S74" s="7"/>
-      <c r="T74" s="49">
+      <c r="S74" s="143"/>
+      <c r="T74" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U74" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V74" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="49">
         <v>621</v>
       </c>
-      <c r="U74" s="25">
+      <c r="Z74" s="25">
         <v>11.765820400000001</v>
       </c>
-      <c r="V74" s="24"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="54"/>
-      <c r="Z74" s="54"/>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="54"/>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA74" s="143"/>
+      <c r="AB74" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC74" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD74" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE74" s="24"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="27"/>
+      <c r="AH74" s="143"/>
+      <c r="AI74" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ74" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK74" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL74" s="54"/>
+      <c r="AM74" s="54"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="54"/>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>78</v>
       </c>
@@ -5126,29 +7083,60 @@
       <c r="O75" s="51">
         <v>11.5232443</v>
       </c>
-      <c r="P75" s="7"/>
+      <c r="P75" s="143"/>
       <c r="Q75" s="49">
         <v>5306</v>
       </c>
       <c r="R75" s="48">
         <v>12.1965796</v>
       </c>
-      <c r="S75" s="7"/>
-      <c r="T75" s="49">
+      <c r="S75" s="143"/>
+      <c r="T75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U75" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V75" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="49">
         <v>1170</v>
       </c>
-      <c r="U75" s="26">
+      <c r="Z75" s="26">
         <v>22.167487699999999</v>
       </c>
-      <c r="V75" s="24"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="54"/>
-      <c r="Z75" s="54"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="54"/>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA75" s="143"/>
+      <c r="AB75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC75" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD75" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="27"/>
+      <c r="AH75" s="143"/>
+      <c r="AI75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ75" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK75" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL75" s="54"/>
+      <c r="AM75" s="54"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="54"/>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>78</v>
       </c>
@@ -5187,33 +7175,64 @@
       <c r="O76" s="51">
         <v>27.299703300000001</v>
       </c>
-      <c r="P76" s="7"/>
+      <c r="P76" s="143"/>
       <c r="Q76" s="49">
         <v>8202</v>
       </c>
       <c r="R76" s="48">
         <v>18.853438799999999</v>
       </c>
-      <c r="S76" s="7"/>
-      <c r="T76" s="49">
+      <c r="S76" s="143"/>
+      <c r="T76" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U76" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V76" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="49">
         <v>818</v>
       </c>
-      <c r="U76" s="25">
+      <c r="Z76" s="25">
         <v>15.4982948</v>
       </c>
-      <c r="V76" s="24"/>
-      <c r="W76" s="11" t="s">
+      <c r="AA76" s="143"/>
+      <c r="AB76" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC76" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="X76" s="29" t="s">
+      <c r="AD76" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Y76" s="54"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="55"/>
-    </row>
-    <row r="77" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE76" s="24"/>
+      <c r="AF76" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG76" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH76" s="143"/>
+      <c r="AI76" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ76" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK76" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL76" s="54"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="55"/>
+    </row>
+    <row r="77" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="32"/>
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
@@ -5229,21 +7248,34 @@
       <c r="M77" s="32"/>
       <c r="N77" s="33"/>
       <c r="O77" s="61"/>
-      <c r="P77" s="33"/>
+      <c r="P77" s="143"/>
       <c r="Q77" s="43"/>
       <c r="R77" s="39"/>
-      <c r="S77" s="33"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="33"/>
-      <c r="V77" s="33"/>
+      <c r="S77" s="143"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
       <c r="W77" s="33"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="54"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="54"/>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X77" s="33"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="33"/>
+      <c r="AA77" s="143"/>
+      <c r="AB77" s="11"/>
+      <c r="AC77" s="11"/>
+      <c r="AD77" s="11"/>
+      <c r="AE77" s="33"/>
+      <c r="AF77" s="33"/>
+      <c r="AG77" s="37"/>
+      <c r="AH77" s="143"/>
+      <c r="AI77" s="11"/>
+      <c r="AJ77" s="11"/>
+      <c r="AK77" s="11"/>
+      <c r="AL77" s="54"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="5"/>
+      <c r="AO77" s="54"/>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>86</v>
       </c>
@@ -5282,29 +7314,60 @@
       <c r="O78" s="51">
         <v>11.0067114</v>
       </c>
-      <c r="P78" s="7"/>
+      <c r="P78" s="143"/>
       <c r="Q78" s="49">
         <v>11667</v>
       </c>
       <c r="R78" s="57">
         <v>39.018761900000001</v>
       </c>
-      <c r="S78" s="7"/>
-      <c r="T78" s="49">
+      <c r="S78" s="143"/>
+      <c r="T78" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U78" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="V78" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="49">
         <v>856</v>
       </c>
-      <c r="U78" s="25">
+      <c r="Z78" s="25">
         <v>21.621621600000001</v>
       </c>
-      <c r="V78" s="24"/>
-      <c r="W78" s="7"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="54"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="55"/>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA78" s="143"/>
+      <c r="AB78" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC78" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD78" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="27"/>
+      <c r="AH78" s="143"/>
+      <c r="AI78" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ78" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK78" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL78" s="54"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="55"/>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>86</v>
       </c>
@@ -5343,29 +7406,60 @@
       <c r="O79" s="52">
         <v>53.422818800000002</v>
       </c>
-      <c r="P79" s="7"/>
+      <c r="P79" s="143"/>
       <c r="Q79" s="49">
         <v>4676</v>
       </c>
       <c r="R79" s="48">
         <v>15.638273</v>
       </c>
-      <c r="S79" s="7"/>
-      <c r="T79" s="49">
+      <c r="S79" s="143"/>
+      <c r="T79" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U79" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="V79" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="49">
         <v>1220</v>
       </c>
-      <c r="U79" s="26">
+      <c r="Z79" s="26">
         <v>30.815862599999999</v>
       </c>
-      <c r="V79" s="24"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="54"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="55"/>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA79" s="143"/>
+      <c r="AB79" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC79" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD79" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE79" s="24"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="27"/>
+      <c r="AH79" s="143"/>
+      <c r="AI79" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ79" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK79" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL79" s="54"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="55"/>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>86</v>
       </c>
@@ -5404,29 +7498,60 @@
       <c r="O80" s="51">
         <v>4.2416106999999998</v>
       </c>
-      <c r="P80" s="7"/>
+      <c r="P80" s="143"/>
       <c r="Q80" s="49">
         <v>4594</v>
       </c>
       <c r="R80" s="48">
         <v>15.3640346</v>
       </c>
-      <c r="S80" s="7"/>
-      <c r="T80" s="49">
+      <c r="S80" s="143"/>
+      <c r="T80" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U80" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="V80" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="49">
         <v>893</v>
       </c>
-      <c r="U80" s="25">
+      <c r="Z80" s="25">
         <v>22.556201099999999</v>
       </c>
-      <c r="V80" s="24"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="54"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="55"/>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA80" s="143"/>
+      <c r="AB80" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC80" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD80" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE80" s="24"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="27"/>
+      <c r="AH80" s="143"/>
+      <c r="AI80" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ80" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK80" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL80" s="54"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="55"/>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>86</v>
       </c>
@@ -5465,33 +7590,64 @@
       <c r="O81" s="51">
         <v>31.328859099999999</v>
       </c>
-      <c r="P81" s="7"/>
+      <c r="P81" s="143"/>
       <c r="Q81" s="49">
         <v>8964</v>
       </c>
       <c r="R81" s="48">
         <v>29.978930500000001</v>
       </c>
-      <c r="S81" s="7"/>
-      <c r="T81" s="49">
+      <c r="S81" s="143"/>
+      <c r="T81" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U81" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="V81" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="49">
         <v>990</v>
       </c>
-      <c r="U81" s="25">
+      <c r="Z81" s="25">
         <v>25.006314700000001</v>
       </c>
-      <c r="V81" s="24"/>
-      <c r="W81" s="11" t="s">
+      <c r="AA81" s="143"/>
+      <c r="AB81" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC81" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="X81" s="29" t="s">
+      <c r="AD81" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Y81" s="54"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="55"/>
-    </row>
-    <row r="82" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE81" s="24"/>
+      <c r="AF81" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG81" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH81" s="143"/>
+      <c r="AI81" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ81" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK81" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL81" s="54"/>
+      <c r="AM81" s="5"/>
+      <c r="AN81" s="5"/>
+      <c r="AO81" s="55"/>
+    </row>
+    <row r="82" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -5507,21 +7663,34 @@
       <c r="M82" s="32"/>
       <c r="N82" s="33"/>
       <c r="O82" s="61"/>
-      <c r="P82" s="33"/>
+      <c r="P82" s="143"/>
       <c r="Q82" s="43"/>
       <c r="R82" s="39"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="33"/>
+      <c r="S82" s="143"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
       <c r="W82" s="33"/>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="54"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="54"/>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X82" s="33"/>
+      <c r="Y82" s="43"/>
+      <c r="Z82" s="33"/>
+      <c r="AA82" s="143"/>
+      <c r="AB82" s="11"/>
+      <c r="AC82" s="11"/>
+      <c r="AD82" s="11"/>
+      <c r="AE82" s="33"/>
+      <c r="AF82" s="33"/>
+      <c r="AG82" s="37"/>
+      <c r="AH82" s="143"/>
+      <c r="AI82" s="11"/>
+      <c r="AJ82" s="11"/>
+      <c r="AK82" s="11"/>
+      <c r="AL82" s="54"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="54"/>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>92</v>
       </c>
@@ -5560,29 +7729,60 @@
       <c r="O83" s="51">
         <v>4.7169810999999999</v>
       </c>
-      <c r="P83" s="7"/>
+      <c r="P83" s="143"/>
       <c r="Q83" s="49">
         <v>8404</v>
       </c>
       <c r="R83" s="48">
         <v>25.415066400000001</v>
       </c>
-      <c r="S83" s="7"/>
-      <c r="T83" s="49">
+      <c r="S83" s="143"/>
+      <c r="T83" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U83" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V83" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="49">
         <v>677</v>
       </c>
-      <c r="U83" s="25">
+      <c r="Z83" s="25">
         <v>12.9124547</v>
       </c>
-      <c r="V83" s="24"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="54"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="55"/>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA83" s="143"/>
+      <c r="AB83" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC83" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD83" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE83" s="24"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="27"/>
+      <c r="AH83" s="143"/>
+      <c r="AI83" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ83" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK83" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL83" s="54"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="55"/>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>92</v>
       </c>
@@ -5621,33 +7821,64 @@
       <c r="O84" s="52">
         <v>45.129442699999998</v>
       </c>
-      <c r="P84" s="7"/>
+      <c r="P84" s="143"/>
       <c r="Q84" s="49">
         <v>4717</v>
       </c>
       <c r="R84" s="48">
         <v>14.264977200000001</v>
       </c>
-      <c r="S84" s="7"/>
-      <c r="T84" s="49">
+      <c r="S84" s="143"/>
+      <c r="T84" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U84" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V84" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="49">
         <v>1499</v>
       </c>
-      <c r="U84" s="25">
+      <c r="Z84" s="25">
         <v>28.5905016</v>
       </c>
-      <c r="V84" s="24"/>
-      <c r="W84" s="11" t="s">
+      <c r="AA84" s="143"/>
+      <c r="AB84" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC84" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="X84" s="29" t="s">
+      <c r="AD84" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="Y84" s="54"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="55"/>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG84" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH84" s="143"/>
+      <c r="AI84" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ84" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK84" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL84" s="54"/>
+      <c r="AM84" s="5"/>
+      <c r="AN84" s="5"/>
+      <c r="AO84" s="55"/>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>92</v>
       </c>
@@ -5686,29 +7917,60 @@
       <c r="O85" s="51">
         <v>12.373848199999999</v>
       </c>
-      <c r="P85" s="7"/>
+      <c r="P85" s="143"/>
       <c r="Q85" s="49">
         <v>7556</v>
       </c>
       <c r="R85" s="48">
         <v>22.850576100000001</v>
       </c>
-      <c r="S85" s="7"/>
-      <c r="T85" s="49">
+      <c r="S85" s="143"/>
+      <c r="T85" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U85" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V85" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="49">
         <v>1668</v>
       </c>
-      <c r="U85" s="26">
+      <c r="Z85" s="26">
         <v>31.813846999999999</v>
       </c>
-      <c r="V85" s="24"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="54"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="55"/>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA85" s="143"/>
+      <c r="AB85" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC85" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD85" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE85" s="24"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="27"/>
+      <c r="AH85" s="143"/>
+      <c r="AI85" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ85" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK85" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL85" s="54"/>
+      <c r="AM85" s="5"/>
+      <c r="AN85" s="5"/>
+      <c r="AO85" s="55"/>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>92</v>
       </c>
@@ -5747,29 +8009,60 @@
       <c r="O86" s="51">
         <v>37.779727999999999</v>
       </c>
-      <c r="P86" s="7"/>
+      <c r="P86" s="143"/>
       <c r="Q86" s="49">
         <v>12390</v>
       </c>
       <c r="R86" s="57">
         <v>37.469380299999997</v>
       </c>
-      <c r="S86" s="7"/>
-      <c r="T86" s="49">
+      <c r="S86" s="143"/>
+      <c r="T86" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U86" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V86" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="49">
         <v>1399</v>
       </c>
-      <c r="U86" s="25">
+      <c r="Z86" s="25">
         <v>26.683196599999999</v>
       </c>
-      <c r="V86" s="24"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="54"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="55"/>
-    </row>
-    <row r="87" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA86" s="143"/>
+      <c r="AB86" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC86" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD86" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE86" s="24"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="27"/>
+      <c r="AH86" s="143"/>
+      <c r="AI86" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ86" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK86" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL86" s="54"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="5"/>
+      <c r="AO86" s="55"/>
+    </row>
+    <row r="87" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
@@ -5785,21 +8078,34 @@
       <c r="M87" s="32"/>
       <c r="N87" s="33"/>
       <c r="O87" s="61"/>
-      <c r="P87" s="33"/>
+      <c r="P87" s="143"/>
       <c r="Q87" s="43"/>
       <c r="R87" s="39"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="43"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="33"/>
+      <c r="S87" s="143"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
       <c r="W87" s="33"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="54"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="54"/>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X87" s="33"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="33"/>
+      <c r="AA87" s="143"/>
+      <c r="AB87" s="11"/>
+      <c r="AC87" s="11"/>
+      <c r="AD87" s="11"/>
+      <c r="AE87" s="33"/>
+      <c r="AF87" s="33"/>
+      <c r="AG87" s="37"/>
+      <c r="AH87" s="143"/>
+      <c r="AI87" s="11"/>
+      <c r="AJ87" s="11"/>
+      <c r="AK87" s="11"/>
+      <c r="AL87" s="54"/>
+      <c r="AM87" s="5"/>
+      <c r="AN87" s="5"/>
+      <c r="AO87" s="54"/>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>98</v>
       </c>
@@ -5838,33 +8144,64 @@
       <c r="O88" s="51">
         <v>100</v>
       </c>
-      <c r="P88" s="7"/>
+      <c r="P88" s="143"/>
       <c r="Q88" s="49">
         <v>6380</v>
       </c>
       <c r="R88" s="51">
         <v>100</v>
       </c>
-      <c r="S88" s="7"/>
-      <c r="T88" s="49">
+      <c r="S88" s="143"/>
+      <c r="T88" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U88" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="V88" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="49">
         <v>833</v>
       </c>
-      <c r="U88" s="25">
+      <c r="Z88" s="25">
         <v>100</v>
       </c>
-      <c r="V88" s="24"/>
-      <c r="W88" s="11" t="s">
+      <c r="AA88" s="143"/>
+      <c r="AB88" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC88" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="X88" s="29" t="s">
+      <c r="AD88" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Y88" s="54"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="55"/>
-    </row>
-    <row r="89" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG88" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH88" s="143"/>
+      <c r="AI88" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ88" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK88" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL88" s="54"/>
+      <c r="AM88" s="5"/>
+      <c r="AN88" s="5"/>
+      <c r="AO88" s="55"/>
+    </row>
+    <row r="89" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -5880,21 +8217,34 @@
       <c r="M89" s="32"/>
       <c r="N89" s="33"/>
       <c r="O89" s="40"/>
-      <c r="P89" s="33"/>
+      <c r="P89" s="145"/>
       <c r="Q89" s="43"/>
       <c r="R89" s="39"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="43"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="33"/>
+      <c r="S89" s="145"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
       <c r="W89" s="33"/>
-      <c r="X89" s="35"/>
-      <c r="Y89" s="54"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X89" s="33"/>
+      <c r="Y89" s="43"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="145"/>
+      <c r="AB89" s="11"/>
+      <c r="AC89" s="11"/>
+      <c r="AD89" s="11"/>
+      <c r="AE89" s="33"/>
+      <c r="AF89" s="33"/>
+      <c r="AG89" s="35"/>
+      <c r="AH89" s="145"/>
+      <c r="AI89" s="11"/>
+      <c r="AJ89" s="11"/>
+      <c r="AK89" s="11"/>
+      <c r="AL89" s="54"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="5"/>
+      <c r="AO89" s="5"/>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>100</v>
       </c>
@@ -5933,33 +8283,64 @@
       <c r="O90" s="52">
         <v>77.902813300000005</v>
       </c>
-      <c r="P90" s="7"/>
+      <c r="P90" s="143"/>
       <c r="Q90" s="49">
         <v>6162</v>
       </c>
       <c r="R90" s="48">
         <v>30.275635000000001</v>
       </c>
-      <c r="S90" s="7"/>
-      <c r="T90" s="49">
+      <c r="S90" s="143"/>
+      <c r="T90" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U90" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="V90" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="49">
         <v>1466</v>
       </c>
-      <c r="U90" s="26">
+      <c r="Z90" s="26">
         <v>62.7837259</v>
       </c>
-      <c r="V90" s="24"/>
-      <c r="W90" s="11" t="s">
+      <c r="AA90" s="143"/>
+      <c r="AB90" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC90" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="X90" s="29" t="s">
+      <c r="AD90" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y90" s="54"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="55"/>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE90" s="24"/>
+      <c r="AF90" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG90" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH90" s="143"/>
+      <c r="AI90" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ90" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK90" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL90" s="54"/>
+      <c r="AM90" s="5"/>
+      <c r="AN90" s="5"/>
+      <c r="AO90" s="55"/>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>100</v>
       </c>
@@ -5998,29 +8379,60 @@
       <c r="O91" s="51">
         <v>22.097186700000002</v>
       </c>
-      <c r="P91" s="7"/>
+      <c r="P91" s="143"/>
       <c r="Q91" s="49">
         <v>14191</v>
       </c>
       <c r="R91" s="57">
         <v>69.724365000000006</v>
       </c>
-      <c r="S91" s="7"/>
-      <c r="T91" s="49">
+      <c r="S91" s="143"/>
+      <c r="T91" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U91" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="V91" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="49">
         <v>869</v>
       </c>
-      <c r="U91" s="25">
+      <c r="Z91" s="25">
         <v>37.2162741</v>
       </c>
-      <c r="V91" s="24"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="54"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="55"/>
-    </row>
-    <row r="92" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA91" s="143"/>
+      <c r="AB91" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC91" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD91" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE91" s="24"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="27"/>
+      <c r="AH91" s="143"/>
+      <c r="AI91" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ91" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK91" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL91" s="54"/>
+      <c r="AM91" s="5"/>
+      <c r="AN91" s="5"/>
+      <c r="AO91" s="55"/>
+    </row>
+    <row r="92" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="35"/>
       <c r="B92" s="35"/>
       <c r="C92" s="35"/>
@@ -6036,21 +8448,34 @@
       <c r="M92" s="35"/>
       <c r="N92" s="35"/>
       <c r="O92" s="40"/>
-      <c r="P92" s="34"/>
+      <c r="P92" s="145"/>
       <c r="Q92" s="44"/>
       <c r="R92" s="40"/>
-      <c r="S92" s="34"/>
-      <c r="T92" s="44"/>
-      <c r="U92" s="34"/>
-      <c r="V92" s="35"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="54"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="54"/>
-      <c r="AB92" s="55"/>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S92" s="145"/>
+      <c r="T92" s="56"/>
+      <c r="U92" s="56"/>
+      <c r="V92" s="56"/>
+      <c r="W92" s="34"/>
+      <c r="X92" s="34"/>
+      <c r="Y92" s="44"/>
+      <c r="Z92" s="34"/>
+      <c r="AA92" s="145"/>
+      <c r="AB92" s="56"/>
+      <c r="AC92" s="56"/>
+      <c r="AD92" s="56"/>
+      <c r="AE92" s="35"/>
+      <c r="AF92" s="35"/>
+      <c r="AG92" s="35"/>
+      <c r="AH92" s="145"/>
+      <c r="AI92" s="56"/>
+      <c r="AJ92" s="56"/>
+      <c r="AK92" s="56"/>
+      <c r="AL92" s="54"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="54"/>
+      <c r="AO92" s="55"/>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -6074,31 +8499,62 @@
       <c r="O93" s="52">
         <v>76.966292100000004</v>
       </c>
-      <c r="P93" s="7"/>
+      <c r="P93" s="143"/>
       <c r="Q93" s="49">
         <v>579</v>
       </c>
       <c r="R93" s="52">
         <v>44.720496900000001</v>
       </c>
-      <c r="S93">
+      <c r="S93" s="143"/>
+      <c r="T93" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U93" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="V93" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="W93" s="7"/>
+      <c r="X93">
         <v>57.726819499999998</v>
       </c>
-      <c r="T93" s="49">
+      <c r="Y93" s="49">
         <v>4</v>
       </c>
-      <c r="U93" s="26">
+      <c r="Z93" s="26">
         <v>57.142857100000001</v>
       </c>
-      <c r="V93" s="9"/>
-      <c r="W93" s="11"/>
-      <c r="X93" s="27"/>
-      <c r="Y93" s="54"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="54"/>
-      <c r="AB93" s="55"/>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA93" s="143"/>
+      <c r="AB93" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC93" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD93" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE93" s="9"/>
+      <c r="AF93" s="11"/>
+      <c r="AG93" s="27"/>
+      <c r="AH93" s="143"/>
+      <c r="AI93" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ93" s="156" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK93" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL93" s="54"/>
+      <c r="AM93" s="5"/>
+      <c r="AN93" s="54"/>
+      <c r="AO93" s="55"/>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -6122,31 +8578,62 @@
       <c r="O94" s="51">
         <v>15.168539300000001</v>
       </c>
-      <c r="P94" s="7"/>
+      <c r="P94" s="143"/>
       <c r="Q94" s="49">
         <v>176</v>
       </c>
       <c r="R94" s="51">
         <v>22.3602484</v>
       </c>
-      <c r="S94">
+      <c r="S94" s="143"/>
+      <c r="T94" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U94" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="V94" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="W94" s="7"/>
+      <c r="X94">
         <v>17.547357900000002</v>
       </c>
-      <c r="T94" s="49">
+      <c r="Y94" s="49">
         <v>2</v>
       </c>
-      <c r="U94" s="25">
+      <c r="Z94" s="25">
         <v>28.571428600000001</v>
       </c>
-      <c r="V94" s="9"/>
-      <c r="W94" s="11"/>
-      <c r="X94" s="27"/>
-      <c r="Y94" s="54"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
-      <c r="AB94" s="5"/>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA94" s="143"/>
+      <c r="AB94" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC94" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD94" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE94" s="9"/>
+      <c r="AF94" s="11"/>
+      <c r="AG94" s="27"/>
+      <c r="AH94" s="143"/>
+      <c r="AI94" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ94" s="156" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK94" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL94" s="54"/>
+      <c r="AM94" s="5"/>
+      <c r="AN94" s="5"/>
+      <c r="AO94" s="5"/>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -6170,35 +8657,66 @@
       <c r="O95" s="51">
         <v>7.86516854</v>
       </c>
-      <c r="P95" s="7"/>
+      <c r="P95" s="143"/>
       <c r="Q95" s="49">
         <v>248</v>
       </c>
       <c r="R95" s="51">
         <v>32.919254700000003</v>
       </c>
-      <c r="S95">
+      <c r="S95" s="143"/>
+      <c r="T95" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U95" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="V95" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="W95" s="7"/>
+      <c r="X95">
         <v>24.7258225</v>
       </c>
-      <c r="T95" s="49">
+      <c r="Y95" s="49">
         <v>1</v>
       </c>
-      <c r="U95" s="25">
+      <c r="Z95" s="25">
         <v>14.2857143</v>
       </c>
-      <c r="V95" s="9"/>
-      <c r="W95" s="27" t="s">
+      <c r="AA95" s="143"/>
+      <c r="AB95" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC95" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="X95" s="31" t="s">
+      <c r="AD95" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="Y95" s="54"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
-    </row>
-    <row r="96" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE95" s="9"/>
+      <c r="AF95" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG95" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH95" s="143"/>
+      <c r="AI95" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ95" s="156" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK95" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL95" s="54"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="5"/>
+      <c r="AO95" s="5"/>
+    </row>
+    <row r="96" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="32"/>
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
@@ -6214,21 +8732,34 @@
       <c r="M96" s="32"/>
       <c r="N96" s="32"/>
       <c r="O96" s="39"/>
-      <c r="P96" s="32"/>
+      <c r="P96" s="38"/>
       <c r="Q96" s="43"/>
       <c r="R96" s="39"/>
-      <c r="S96" s="32"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="33"/>
-      <c r="V96" s="32"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
       <c r="W96" s="32"/>
       <c r="X96" s="32"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="56"/>
-      <c r="AA96" s="56"/>
-      <c r="AB96" s="56"/>
-    </row>
-    <row r="97" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="33"/>
+      <c r="AA96" s="38"/>
+      <c r="AB96" s="11"/>
+      <c r="AC96" s="11"/>
+      <c r="AD96" s="11"/>
+      <c r="AE96" s="32"/>
+      <c r="AF96" s="32"/>
+      <c r="AG96" s="32"/>
+      <c r="AH96" s="38"/>
+      <c r="AI96" s="11"/>
+      <c r="AJ96" s="11"/>
+      <c r="AK96" s="11"/>
+      <c r="AL96" s="27"/>
+      <c r="AM96" s="56"/>
+      <c r="AN96" s="56"/>
+      <c r="AO96" s="56"/>
+    </row>
+    <row r="97" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -6244,21 +8775,34 @@
       <c r="M97" s="9"/>
       <c r="N97" s="11"/>
       <c r="O97" s="38"/>
-      <c r="P97" s="11"/>
+      <c r="P97" s="38"/>
       <c r="Q97" s="42"/>
       <c r="R97" s="38"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="42"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="9"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
       <c r="W97" s="11"/>
       <c r="X97" s="11"/>
-      <c r="Y97" s="27"/>
-      <c r="Z97" s="56"/>
-      <c r="AA97" s="56"/>
-      <c r="AB97" s="56"/>
-    </row>
-    <row r="98" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y97" s="42"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="38"/>
+      <c r="AB97" s="11"/>
+      <c r="AC97" s="11"/>
+      <c r="AD97" s="11"/>
+      <c r="AE97" s="9"/>
+      <c r="AF97" s="11"/>
+      <c r="AG97" s="11"/>
+      <c r="AH97" s="38"/>
+      <c r="AI97" s="11"/>
+      <c r="AJ97" s="11"/>
+      <c r="AK97" s="11"/>
+      <c r="AL97" s="27"/>
+      <c r="AM97" s="56"/>
+      <c r="AN97" s="56"/>
+      <c r="AO97" s="56"/>
+    </row>
+    <row r="98" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -6274,20 +8818,33 @@
       <c r="M98" s="9"/>
       <c r="N98" s="11"/>
       <c r="O98" s="38"/>
-      <c r="P98" s="11"/>
+      <c r="P98" s="38"/>
       <c r="Q98" s="42"/>
       <c r="R98" s="53"/>
-      <c r="S98"/>
-      <c r="T98" s="42"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="9"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
       <c r="W98" s="11"/>
-      <c r="X98" s="11"/>
-      <c r="Y98" s="22"/>
-      <c r="AA98" s="56"/>
-      <c r="AB98" s="56"/>
-    </row>
-    <row r="99" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X98"/>
+      <c r="Y98" s="42"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="38"/>
+      <c r="AB98" s="11"/>
+      <c r="AC98" s="11"/>
+      <c r="AD98" s="11"/>
+      <c r="AE98" s="9"/>
+      <c r="AF98" s="11"/>
+      <c r="AG98" s="11"/>
+      <c r="AH98" s="38"/>
+      <c r="AI98" s="11"/>
+      <c r="AJ98" s="11"/>
+      <c r="AK98" s="11"/>
+      <c r="AL98" s="22"/>
+      <c r="AN98" s="56"/>
+      <c r="AO98" s="56"/>
+    </row>
+    <row r="99" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -6303,18 +8860,31 @@
       <c r="M99" s="9"/>
       <c r="N99" s="11"/>
       <c r="O99" s="38"/>
-      <c r="P99" s="11"/>
+      <c r="P99" s="38"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="53"/>
-      <c r="S99"/>
-      <c r="T99" s="42"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="9"/>
+      <c r="S99" s="38"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
       <c r="W99" s="11"/>
-      <c r="X99" s="11"/>
-      <c r="Y99" s="22"/>
-    </row>
-    <row r="100" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X99"/>
+      <c r="Y99" s="42"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="38"/>
+      <c r="AB99" s="11"/>
+      <c r="AC99" s="11"/>
+      <c r="AD99" s="11"/>
+      <c r="AE99" s="9"/>
+      <c r="AF99" s="11"/>
+      <c r="AG99" s="11"/>
+      <c r="AH99" s="38"/>
+      <c r="AI99" s="11"/>
+      <c r="AJ99" s="11"/>
+      <c r="AK99" s="11"/>
+      <c r="AL99" s="22"/>
+    </row>
+    <row r="100" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -6330,18 +8900,31 @@
       <c r="M100" s="9"/>
       <c r="N100" s="11"/>
       <c r="O100" s="38"/>
-      <c r="P100" s="11"/>
+      <c r="P100" s="38"/>
       <c r="Q100" s="42"/>
       <c r="R100" s="53"/>
-      <c r="S100"/>
-      <c r="T100" s="42"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="9"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="11"/>
+      <c r="U100" s="11"/>
+      <c r="V100" s="11"/>
       <c r="W100" s="11"/>
-      <c r="X100" s="11"/>
-      <c r="Y100" s="22"/>
-    </row>
-    <row r="101" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X100"/>
+      <c r="Y100" s="42"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="38"/>
+      <c r="AB100" s="11"/>
+      <c r="AC100" s="11"/>
+      <c r="AD100" s="11"/>
+      <c r="AE100" s="9"/>
+      <c r="AF100" s="11"/>
+      <c r="AG100" s="11"/>
+      <c r="AH100" s="38"/>
+      <c r="AI100" s="11"/>
+      <c r="AJ100" s="11"/>
+      <c r="AK100" s="11"/>
+      <c r="AL100" s="22"/>
+    </row>
+    <row r="101" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -6357,17 +8940,30 @@
       <c r="M101" s="9"/>
       <c r="N101" s="11"/>
       <c r="O101" s="38"/>
-      <c r="P101" s="11"/>
+      <c r="P101" s="38"/>
       <c r="Q101" s="42"/>
       <c r="R101" s="53"/>
-      <c r="T101" s="42"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="9"/>
+      <c r="S101" s="38"/>
+      <c r="T101" s="11"/>
+      <c r="U101" s="11"/>
+      <c r="V101" s="11"/>
       <c r="W101" s="11"/>
-      <c r="X101" s="11"/>
-      <c r="Y101" s="22"/>
-    </row>
-    <row r="102" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y101" s="42"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="38"/>
+      <c r="AB101" s="11"/>
+      <c r="AC101" s="11"/>
+      <c r="AD101" s="11"/>
+      <c r="AE101" s="9"/>
+      <c r="AF101" s="11"/>
+      <c r="AG101" s="11"/>
+      <c r="AH101" s="38"/>
+      <c r="AI101" s="11"/>
+      <c r="AJ101" s="11"/>
+      <c r="AK101" s="11"/>
+      <c r="AL101" s="22"/>
+    </row>
+    <row r="102" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -6383,18 +8979,31 @@
       <c r="M102" s="9"/>
       <c r="N102" s="11"/>
       <c r="O102" s="38"/>
-      <c r="P102" s="11"/>
+      <c r="P102" s="38"/>
       <c r="Q102" s="42"/>
       <c r="R102" s="38"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="42"/>
-      <c r="U102" s="7"/>
-      <c r="V102" s="9"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
       <c r="W102" s="11"/>
       <c r="X102" s="11"/>
-      <c r="Y102" s="22"/>
-    </row>
-    <row r="103" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y102" s="42"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="38"/>
+      <c r="AB102" s="11"/>
+      <c r="AC102" s="11"/>
+      <c r="AD102" s="11"/>
+      <c r="AE102" s="9"/>
+      <c r="AF102" s="11"/>
+      <c r="AG102" s="11"/>
+      <c r="AH102" s="38"/>
+      <c r="AI102" s="11"/>
+      <c r="AJ102" s="11"/>
+      <c r="AK102" s="11"/>
+      <c r="AL102" s="22"/>
+    </row>
+    <row r="103" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -6410,18 +9019,31 @@
       <c r="M103" s="9"/>
       <c r="N103" s="11"/>
       <c r="O103" s="38"/>
-      <c r="P103" s="11"/>
+      <c r="P103" s="38"/>
       <c r="Q103" s="42"/>
       <c r="R103" s="38"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="42"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="9"/>
+      <c r="S103" s="38"/>
+      <c r="T103" s="11"/>
+      <c r="U103" s="11"/>
+      <c r="V103" s="11"/>
       <c r="W103" s="11"/>
       <c r="X103" s="11"/>
-      <c r="Y103" s="22"/>
-    </row>
-    <row r="104" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y103" s="42"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="38"/>
+      <c r="AB103" s="11"/>
+      <c r="AC103" s="11"/>
+      <c r="AD103" s="11"/>
+      <c r="AE103" s="9"/>
+      <c r="AF103" s="11"/>
+      <c r="AG103" s="11"/>
+      <c r="AH103" s="38"/>
+      <c r="AI103" s="11"/>
+      <c r="AJ103" s="11"/>
+      <c r="AK103" s="11"/>
+      <c r="AL103" s="22"/>
+    </row>
+    <row r="104" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -6437,18 +9059,31 @@
       <c r="M104" s="9"/>
       <c r="N104" s="11"/>
       <c r="O104" s="38"/>
-      <c r="P104" s="11"/>
+      <c r="P104" s="38"/>
       <c r="Q104" s="42"/>
       <c r="R104" s="38"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="42"/>
-      <c r="U104" s="7"/>
-      <c r="V104" s="9"/>
+      <c r="S104" s="38"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
       <c r="W104" s="11"/>
       <c r="X104" s="11"/>
-      <c r="Y104" s="22"/>
-    </row>
-    <row r="105" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y104" s="42"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="38"/>
+      <c r="AB104" s="11"/>
+      <c r="AC104" s="11"/>
+      <c r="AD104" s="11"/>
+      <c r="AE104" s="9"/>
+      <c r="AF104" s="11"/>
+      <c r="AG104" s="11"/>
+      <c r="AH104" s="38"/>
+      <c r="AI104" s="11"/>
+      <c r="AJ104" s="11"/>
+      <c r="AK104" s="11"/>
+      <c r="AL104" s="22"/>
+    </row>
+    <row r="105" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -6464,18 +9099,31 @@
       <c r="M105" s="9"/>
       <c r="N105" s="11"/>
       <c r="O105" s="38"/>
-      <c r="P105" s="11"/>
+      <c r="P105" s="38"/>
       <c r="Q105" s="42"/>
       <c r="R105" s="38"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="42"/>
-      <c r="U105" s="7"/>
-      <c r="V105" s="9"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="11"/>
+      <c r="U105" s="11"/>
+      <c r="V105" s="11"/>
       <c r="W105" s="11"/>
       <c r="X105" s="11"/>
-      <c r="Y105" s="22"/>
-    </row>
-    <row r="106" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y105" s="42"/>
+      <c r="Z105" s="7"/>
+      <c r="AA105" s="38"/>
+      <c r="AB105" s="11"/>
+      <c r="AC105" s="11"/>
+      <c r="AD105" s="11"/>
+      <c r="AE105" s="9"/>
+      <c r="AF105" s="11"/>
+      <c r="AG105" s="11"/>
+      <c r="AH105" s="38"/>
+      <c r="AI105" s="11"/>
+      <c r="AJ105" s="11"/>
+      <c r="AK105" s="11"/>
+      <c r="AL105" s="22"/>
+    </row>
+    <row r="106" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -6491,18 +9139,31 @@
       <c r="M106" s="9"/>
       <c r="N106" s="11"/>
       <c r="O106" s="38"/>
-      <c r="P106" s="11"/>
+      <c r="P106" s="38"/>
       <c r="Q106" s="42"/>
       <c r="R106" s="38"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="42"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="9"/>
+      <c r="S106" s="38"/>
+      <c r="T106" s="11"/>
+      <c r="U106" s="11"/>
+      <c r="V106" s="11"/>
       <c r="W106" s="11"/>
       <c r="X106" s="11"/>
-      <c r="Y106" s="22"/>
-    </row>
-    <row r="107" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y106" s="42"/>
+      <c r="Z106" s="7"/>
+      <c r="AA106" s="38"/>
+      <c r="AB106" s="11"/>
+      <c r="AC106" s="11"/>
+      <c r="AD106" s="11"/>
+      <c r="AE106" s="9"/>
+      <c r="AF106" s="11"/>
+      <c r="AG106" s="11"/>
+      <c r="AH106" s="38"/>
+      <c r="AI106" s="11"/>
+      <c r="AJ106" s="11"/>
+      <c r="AK106" s="11"/>
+      <c r="AL106" s="22"/>
+    </row>
+    <row r="107" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -6518,18 +9179,31 @@
       <c r="M107" s="9"/>
       <c r="N107" s="11"/>
       <c r="O107" s="38"/>
-      <c r="P107" s="11"/>
+      <c r="P107" s="38"/>
       <c r="Q107" s="42"/>
       <c r="R107" s="38"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="42"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="9"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="11"/>
       <c r="W107" s="11"/>
       <c r="X107" s="11"/>
-      <c r="Y107" s="22"/>
-    </row>
-    <row r="108" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y107" s="42"/>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="11"/>
+      <c r="AC107" s="11"/>
+      <c r="AD107" s="11"/>
+      <c r="AE107" s="9"/>
+      <c r="AF107" s="11"/>
+      <c r="AG107" s="11"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="11"/>
+      <c r="AJ107" s="11"/>
+      <c r="AK107" s="11"/>
+      <c r="AL107" s="22"/>
+    </row>
+    <row r="108" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -6545,18 +9219,31 @@
       <c r="M108" s="9"/>
       <c r="N108" s="11"/>
       <c r="O108" s="38"/>
-      <c r="P108" s="11"/>
+      <c r="P108" s="38"/>
       <c r="Q108" s="42"/>
       <c r="R108" s="38"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="42"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="9"/>
+      <c r="S108" s="38"/>
+      <c r="T108" s="11"/>
+      <c r="U108" s="11"/>
+      <c r="V108" s="11"/>
       <c r="W108" s="11"/>
       <c r="X108" s="11"/>
-      <c r="Y108" s="22"/>
-    </row>
-    <row r="109" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y108" s="42"/>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="38"/>
+      <c r="AB108" s="11"/>
+      <c r="AC108" s="11"/>
+      <c r="AD108" s="11"/>
+      <c r="AE108" s="9"/>
+      <c r="AF108" s="11"/>
+      <c r="AG108" s="11"/>
+      <c r="AH108" s="38"/>
+      <c r="AI108" s="11"/>
+      <c r="AJ108" s="11"/>
+      <c r="AK108" s="11"/>
+      <c r="AL108" s="22"/>
+    </row>
+    <row r="109" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -6572,18 +9259,31 @@
       <c r="M109" s="9"/>
       <c r="N109" s="11"/>
       <c r="O109" s="38"/>
-      <c r="P109" s="11"/>
+      <c r="P109" s="38"/>
       <c r="Q109" s="42"/>
       <c r="R109" s="38"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="42"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="9"/>
+      <c r="S109" s="38"/>
+      <c r="T109" s="11"/>
+      <c r="U109" s="11"/>
+      <c r="V109" s="11"/>
       <c r="W109" s="11"/>
       <c r="X109" s="11"/>
-      <c r="Y109" s="22"/>
-    </row>
-    <row r="110" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y109" s="42"/>
+      <c r="Z109" s="7"/>
+      <c r="AA109" s="38"/>
+      <c r="AB109" s="11"/>
+      <c r="AC109" s="11"/>
+      <c r="AD109" s="11"/>
+      <c r="AE109" s="9"/>
+      <c r="AF109" s="11"/>
+      <c r="AG109" s="11"/>
+      <c r="AH109" s="38"/>
+      <c r="AI109" s="11"/>
+      <c r="AJ109" s="11"/>
+      <c r="AK109" s="11"/>
+      <c r="AL109" s="22"/>
+    </row>
+    <row r="110" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -6599,18 +9299,31 @@
       <c r="M110" s="9"/>
       <c r="N110" s="11"/>
       <c r="O110" s="38"/>
-      <c r="P110" s="11"/>
+      <c r="P110" s="38"/>
       <c r="Q110" s="42"/>
       <c r="R110" s="38"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="42"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="9"/>
+      <c r="S110" s="38"/>
+      <c r="T110" s="11"/>
+      <c r="U110" s="11"/>
+      <c r="V110" s="11"/>
       <c r="W110" s="11"/>
       <c r="X110" s="11"/>
-      <c r="Y110" s="22"/>
-    </row>
-    <row r="111" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y110" s="42"/>
+      <c r="Z110" s="7"/>
+      <c r="AA110" s="38"/>
+      <c r="AB110" s="11"/>
+      <c r="AC110" s="11"/>
+      <c r="AD110" s="11"/>
+      <c r="AE110" s="9"/>
+      <c r="AF110" s="11"/>
+      <c r="AG110" s="11"/>
+      <c r="AH110" s="38"/>
+      <c r="AI110" s="11"/>
+      <c r="AJ110" s="11"/>
+      <c r="AK110" s="11"/>
+      <c r="AL110" s="22"/>
+    </row>
+    <row r="111" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -6626,18 +9339,31 @@
       <c r="M111" s="9"/>
       <c r="N111" s="11"/>
       <c r="O111" s="38"/>
-      <c r="P111" s="11"/>
+      <c r="P111" s="38"/>
       <c r="Q111" s="42"/>
       <c r="R111" s="38"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="42"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="9"/>
+      <c r="S111" s="38"/>
+      <c r="T111" s="11"/>
+      <c r="U111" s="11"/>
+      <c r="V111" s="11"/>
       <c r="W111" s="11"/>
       <c r="X111" s="11"/>
-      <c r="Y111" s="22"/>
-    </row>
-    <row r="112" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y111" s="42"/>
+      <c r="Z111" s="7"/>
+      <c r="AA111" s="38"/>
+      <c r="AB111" s="11"/>
+      <c r="AC111" s="11"/>
+      <c r="AD111" s="11"/>
+      <c r="AE111" s="9"/>
+      <c r="AF111" s="11"/>
+      <c r="AG111" s="11"/>
+      <c r="AH111" s="38"/>
+      <c r="AI111" s="11"/>
+      <c r="AJ111" s="11"/>
+      <c r="AK111" s="11"/>
+      <c r="AL111" s="22"/>
+    </row>
+    <row r="112" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -6653,18 +9379,31 @@
       <c r="M112" s="9"/>
       <c r="N112" s="11"/>
       <c r="O112" s="38"/>
-      <c r="P112" s="11"/>
+      <c r="P112" s="38"/>
       <c r="Q112" s="42"/>
       <c r="R112" s="38"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="42"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="9"/>
+      <c r="S112" s="38"/>
+      <c r="T112" s="11"/>
+      <c r="U112" s="11"/>
+      <c r="V112" s="11"/>
       <c r="W112" s="11"/>
       <c r="X112" s="11"/>
-      <c r="Y112" s="22"/>
-    </row>
-    <row r="113" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y112" s="42"/>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="38"/>
+      <c r="AB112" s="11"/>
+      <c r="AC112" s="11"/>
+      <c r="AD112" s="11"/>
+      <c r="AE112" s="9"/>
+      <c r="AF112" s="11"/>
+      <c r="AG112" s="11"/>
+      <c r="AH112" s="38"/>
+      <c r="AI112" s="11"/>
+      <c r="AJ112" s="11"/>
+      <c r="AK112" s="11"/>
+      <c r="AL112" s="22"/>
+    </row>
+    <row r="113" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -6680,18 +9419,31 @@
       <c r="M113" s="9"/>
       <c r="N113" s="11"/>
       <c r="O113" s="38"/>
-      <c r="P113" s="11"/>
+      <c r="P113" s="38"/>
       <c r="Q113" s="42"/>
       <c r="R113" s="38"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="42"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="9"/>
+      <c r="S113" s="38"/>
+      <c r="T113" s="11"/>
+      <c r="U113" s="11"/>
+      <c r="V113" s="11"/>
       <c r="W113" s="11"/>
       <c r="X113" s="11"/>
-      <c r="Y113" s="22"/>
-    </row>
-    <row r="114" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y113" s="42"/>
+      <c r="Z113" s="7"/>
+      <c r="AA113" s="38"/>
+      <c r="AB113" s="11"/>
+      <c r="AC113" s="11"/>
+      <c r="AD113" s="11"/>
+      <c r="AE113" s="9"/>
+      <c r="AF113" s="11"/>
+      <c r="AG113" s="11"/>
+      <c r="AH113" s="38"/>
+      <c r="AI113" s="11"/>
+      <c r="AJ113" s="11"/>
+      <c r="AK113" s="11"/>
+      <c r="AL113" s="22"/>
+    </row>
+    <row r="114" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -6707,18 +9459,31 @@
       <c r="M114" s="9"/>
       <c r="N114" s="11"/>
       <c r="O114" s="38"/>
-      <c r="P114" s="11"/>
+      <c r="P114" s="38"/>
       <c r="Q114" s="42"/>
       <c r="R114" s="38"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="42"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="9"/>
+      <c r="S114" s="38"/>
+      <c r="T114" s="11"/>
+      <c r="U114" s="11"/>
+      <c r="V114" s="11"/>
       <c r="W114" s="11"/>
       <c r="X114" s="11"/>
-      <c r="Y114" s="22"/>
-    </row>
-    <row r="115" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y114" s="42"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="38"/>
+      <c r="AB114" s="11"/>
+      <c r="AC114" s="11"/>
+      <c r="AD114" s="11"/>
+      <c r="AE114" s="9"/>
+      <c r="AF114" s="11"/>
+      <c r="AG114" s="11"/>
+      <c r="AH114" s="38"/>
+      <c r="AI114" s="11"/>
+      <c r="AJ114" s="11"/>
+      <c r="AK114" s="11"/>
+      <c r="AL114" s="22"/>
+    </row>
+    <row r="115" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -6734,18 +9499,31 @@
       <c r="M115" s="9"/>
       <c r="N115" s="11"/>
       <c r="O115" s="38"/>
-      <c r="P115" s="11"/>
+      <c r="P115" s="38"/>
       <c r="Q115" s="42"/>
       <c r="R115" s="38"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="42"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="9"/>
+      <c r="S115" s="38"/>
+      <c r="T115" s="11"/>
+      <c r="U115" s="11"/>
+      <c r="V115" s="11"/>
       <c r="W115" s="11"/>
       <c r="X115" s="11"/>
-      <c r="Y115" s="22"/>
-    </row>
-    <row r="116" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y115" s="42"/>
+      <c r="Z115" s="7"/>
+      <c r="AA115" s="38"/>
+      <c r="AB115" s="11"/>
+      <c r="AC115" s="11"/>
+      <c r="AD115" s="11"/>
+      <c r="AE115" s="9"/>
+      <c r="AF115" s="11"/>
+      <c r="AG115" s="11"/>
+      <c r="AH115" s="38"/>
+      <c r="AI115" s="11"/>
+      <c r="AJ115" s="11"/>
+      <c r="AK115" s="11"/>
+      <c r="AL115" s="22"/>
+    </row>
+    <row r="116" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -6761,18 +9539,31 @@
       <c r="M116" s="9"/>
       <c r="N116" s="11"/>
       <c r="O116" s="38"/>
-      <c r="P116" s="11"/>
+      <c r="P116" s="38"/>
       <c r="Q116" s="42"/>
       <c r="R116" s="38"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="42"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="9"/>
+      <c r="S116" s="38"/>
+      <c r="T116" s="11"/>
+      <c r="U116" s="11"/>
+      <c r="V116" s="11"/>
       <c r="W116" s="11"/>
       <c r="X116" s="11"/>
-      <c r="Y116" s="22"/>
-    </row>
-    <row r="117" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y116" s="42"/>
+      <c r="Z116" s="7"/>
+      <c r="AA116" s="38"/>
+      <c r="AB116" s="11"/>
+      <c r="AC116" s="11"/>
+      <c r="AD116" s="11"/>
+      <c r="AE116" s="9"/>
+      <c r="AF116" s="11"/>
+      <c r="AG116" s="11"/>
+      <c r="AH116" s="38"/>
+      <c r="AI116" s="11"/>
+      <c r="AJ116" s="11"/>
+      <c r="AK116" s="11"/>
+      <c r="AL116" s="22"/>
+    </row>
+    <row r="117" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -6788,18 +9579,31 @@
       <c r="M117" s="9"/>
       <c r="N117" s="11"/>
       <c r="O117" s="38"/>
-      <c r="P117" s="11"/>
+      <c r="P117" s="38"/>
       <c r="Q117" s="42"/>
       <c r="R117" s="38"/>
-      <c r="S117" s="11"/>
-      <c r="T117" s="42"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="9"/>
+      <c r="S117" s="38"/>
+      <c r="T117" s="11"/>
+      <c r="U117" s="11"/>
+      <c r="V117" s="11"/>
       <c r="W117" s="11"/>
       <c r="X117" s="11"/>
-      <c r="Y117" s="22"/>
-    </row>
-    <row r="118" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y117" s="42"/>
+      <c r="Z117" s="7"/>
+      <c r="AA117" s="38"/>
+      <c r="AB117" s="11"/>
+      <c r="AC117" s="11"/>
+      <c r="AD117" s="11"/>
+      <c r="AE117" s="9"/>
+      <c r="AF117" s="11"/>
+      <c r="AG117" s="11"/>
+      <c r="AH117" s="38"/>
+      <c r="AI117" s="11"/>
+      <c r="AJ117" s="11"/>
+      <c r="AK117" s="11"/>
+      <c r="AL117" s="22"/>
+    </row>
+    <row r="118" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -6815,18 +9619,31 @@
       <c r="M118" s="9"/>
       <c r="N118" s="11"/>
       <c r="O118" s="38"/>
-      <c r="P118" s="11"/>
+      <c r="P118" s="38"/>
       <c r="Q118" s="42"/>
       <c r="R118" s="38"/>
-      <c r="S118" s="11"/>
-      <c r="T118" s="42"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="9"/>
+      <c r="S118" s="38"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="11"/>
+      <c r="V118" s="11"/>
       <c r="W118" s="11"/>
       <c r="X118" s="11"/>
-      <c r="Y118" s="22"/>
-    </row>
-    <row r="119" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y118" s="42"/>
+      <c r="Z118" s="7"/>
+      <c r="AA118" s="38"/>
+      <c r="AB118" s="11"/>
+      <c r="AC118" s="11"/>
+      <c r="AD118" s="11"/>
+      <c r="AE118" s="9"/>
+      <c r="AF118" s="11"/>
+      <c r="AG118" s="11"/>
+      <c r="AH118" s="38"/>
+      <c r="AI118" s="11"/>
+      <c r="AJ118" s="11"/>
+      <c r="AK118" s="11"/>
+      <c r="AL118" s="22"/>
+    </row>
+    <row r="119" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -6842,18 +9659,31 @@
       <c r="M119" s="9"/>
       <c r="N119" s="11"/>
       <c r="O119" s="38"/>
-      <c r="P119" s="11"/>
+      <c r="P119" s="38"/>
       <c r="Q119" s="42"/>
       <c r="R119" s="38"/>
-      <c r="S119" s="11"/>
-      <c r="T119" s="42"/>
-      <c r="U119" s="7"/>
-      <c r="V119" s="9"/>
+      <c r="S119" s="38"/>
+      <c r="T119" s="11"/>
+      <c r="U119" s="11"/>
+      <c r="V119" s="11"/>
       <c r="W119" s="11"/>
       <c r="X119" s="11"/>
-      <c r="Y119" s="22"/>
-    </row>
-    <row r="120" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y119" s="42"/>
+      <c r="Z119" s="7"/>
+      <c r="AA119" s="38"/>
+      <c r="AB119" s="11"/>
+      <c r="AC119" s="11"/>
+      <c r="AD119" s="11"/>
+      <c r="AE119" s="9"/>
+      <c r="AF119" s="11"/>
+      <c r="AG119" s="11"/>
+      <c r="AH119" s="38"/>
+      <c r="AI119" s="11"/>
+      <c r="AJ119" s="11"/>
+      <c r="AK119" s="11"/>
+      <c r="AL119" s="22"/>
+    </row>
+    <row r="120" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -6869,18 +9699,31 @@
       <c r="M120" s="9"/>
       <c r="N120" s="11"/>
       <c r="O120" s="38"/>
-      <c r="P120" s="11"/>
+      <c r="P120" s="38"/>
       <c r="Q120" s="42"/>
       <c r="R120" s="38"/>
-      <c r="S120" s="11"/>
-      <c r="T120" s="42"/>
-      <c r="U120" s="7"/>
-      <c r="V120" s="9"/>
+      <c r="S120" s="38"/>
+      <c r="T120" s="11"/>
+      <c r="U120" s="11"/>
+      <c r="V120" s="11"/>
       <c r="W120" s="11"/>
       <c r="X120" s="11"/>
-      <c r="Y120" s="22"/>
-    </row>
-    <row r="121" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y120" s="42"/>
+      <c r="Z120" s="7"/>
+      <c r="AA120" s="38"/>
+      <c r="AB120" s="11"/>
+      <c r="AC120" s="11"/>
+      <c r="AD120" s="11"/>
+      <c r="AE120" s="9"/>
+      <c r="AF120" s="11"/>
+      <c r="AG120" s="11"/>
+      <c r="AH120" s="38"/>
+      <c r="AI120" s="11"/>
+      <c r="AJ120" s="11"/>
+      <c r="AK120" s="11"/>
+      <c r="AL120" s="22"/>
+    </row>
+    <row r="121" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -6896,18 +9739,31 @@
       <c r="M121" s="9"/>
       <c r="N121" s="11"/>
       <c r="O121" s="38"/>
-      <c r="P121" s="11"/>
+      <c r="P121" s="38"/>
       <c r="Q121" s="42"/>
       <c r="R121" s="38"/>
-      <c r="S121" s="11"/>
-      <c r="T121" s="42"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="9"/>
+      <c r="S121" s="38"/>
+      <c r="T121" s="11"/>
+      <c r="U121" s="11"/>
+      <c r="V121" s="11"/>
       <c r="W121" s="11"/>
       <c r="X121" s="11"/>
-      <c r="Y121" s="22"/>
-    </row>
-    <row r="122" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y121" s="42"/>
+      <c r="Z121" s="7"/>
+      <c r="AA121" s="38"/>
+      <c r="AB121" s="11"/>
+      <c r="AC121" s="11"/>
+      <c r="AD121" s="11"/>
+      <c r="AE121" s="9"/>
+      <c r="AF121" s="11"/>
+      <c r="AG121" s="11"/>
+      <c r="AH121" s="38"/>
+      <c r="AI121" s="11"/>
+      <c r="AJ121" s="11"/>
+      <c r="AK121" s="11"/>
+      <c r="AL121" s="22"/>
+    </row>
+    <row r="122" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -6923,18 +9779,31 @@
       <c r="M122" s="9"/>
       <c r="N122" s="11"/>
       <c r="O122" s="38"/>
-      <c r="P122" s="11"/>
+      <c r="P122" s="38"/>
       <c r="Q122" s="42"/>
       <c r="R122" s="38"/>
-      <c r="S122" s="11"/>
-      <c r="T122" s="42"/>
-      <c r="U122" s="7"/>
-      <c r="V122" s="9"/>
+      <c r="S122" s="38"/>
+      <c r="T122" s="11"/>
+      <c r="U122" s="11"/>
+      <c r="V122" s="11"/>
       <c r="W122" s="11"/>
       <c r="X122" s="11"/>
-      <c r="Y122" s="22"/>
-    </row>
-    <row r="123" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y122" s="42"/>
+      <c r="Z122" s="7"/>
+      <c r="AA122" s="38"/>
+      <c r="AB122" s="11"/>
+      <c r="AC122" s="11"/>
+      <c r="AD122" s="11"/>
+      <c r="AE122" s="9"/>
+      <c r="AF122" s="11"/>
+      <c r="AG122" s="11"/>
+      <c r="AH122" s="38"/>
+      <c r="AI122" s="11"/>
+      <c r="AJ122" s="11"/>
+      <c r="AK122" s="11"/>
+      <c r="AL122" s="22"/>
+    </row>
+    <row r="123" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -6950,18 +9819,31 @@
       <c r="M123" s="9"/>
       <c r="N123" s="11"/>
       <c r="O123" s="38"/>
-      <c r="P123" s="11"/>
+      <c r="P123" s="38"/>
       <c r="Q123" s="42"/>
       <c r="R123" s="38"/>
-      <c r="S123" s="11"/>
-      <c r="T123" s="42"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="9"/>
+      <c r="S123" s="38"/>
+      <c r="T123" s="11"/>
+      <c r="U123" s="11"/>
+      <c r="V123" s="11"/>
       <c r="W123" s="11"/>
       <c r="X123" s="11"/>
-      <c r="Y123" s="22"/>
-    </row>
-    <row r="124" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y123" s="42"/>
+      <c r="Z123" s="7"/>
+      <c r="AA123" s="38"/>
+      <c r="AB123" s="11"/>
+      <c r="AC123" s="11"/>
+      <c r="AD123" s="11"/>
+      <c r="AE123" s="9"/>
+      <c r="AF123" s="11"/>
+      <c r="AG123" s="11"/>
+      <c r="AH123" s="38"/>
+      <c r="AI123" s="11"/>
+      <c r="AJ123" s="11"/>
+      <c r="AK123" s="11"/>
+      <c r="AL123" s="22"/>
+    </row>
+    <row r="124" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -6977,18 +9859,31 @@
       <c r="M124" s="9"/>
       <c r="N124" s="11"/>
       <c r="O124" s="38"/>
-      <c r="P124" s="11"/>
+      <c r="P124" s="38"/>
       <c r="Q124" s="42"/>
       <c r="R124" s="38"/>
-      <c r="S124" s="11"/>
-      <c r="T124" s="42"/>
-      <c r="U124" s="7"/>
-      <c r="V124" s="9"/>
+      <c r="S124" s="38"/>
+      <c r="T124" s="11"/>
+      <c r="U124" s="11"/>
+      <c r="V124" s="11"/>
       <c r="W124" s="11"/>
       <c r="X124" s="11"/>
-      <c r="Y124" s="22"/>
-    </row>
-    <row r="125" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y124" s="42"/>
+      <c r="Z124" s="7"/>
+      <c r="AA124" s="38"/>
+      <c r="AB124" s="11"/>
+      <c r="AC124" s="11"/>
+      <c r="AD124" s="11"/>
+      <c r="AE124" s="9"/>
+      <c r="AF124" s="11"/>
+      <c r="AG124" s="11"/>
+      <c r="AH124" s="38"/>
+      <c r="AI124" s="11"/>
+      <c r="AJ124" s="11"/>
+      <c r="AK124" s="11"/>
+      <c r="AL124" s="22"/>
+    </row>
+    <row r="125" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -7004,18 +9899,31 @@
       <c r="M125" s="9"/>
       <c r="N125" s="11"/>
       <c r="O125" s="38"/>
-      <c r="P125" s="11"/>
+      <c r="P125" s="38"/>
       <c r="Q125" s="42"/>
       <c r="R125" s="38"/>
-      <c r="S125" s="11"/>
-      <c r="T125" s="42"/>
-      <c r="U125" s="7"/>
-      <c r="V125" s="9"/>
+      <c r="S125" s="38"/>
+      <c r="T125" s="11"/>
+      <c r="U125" s="11"/>
+      <c r="V125" s="11"/>
       <c r="W125" s="11"/>
       <c r="X125" s="11"/>
-      <c r="Y125" s="22"/>
-    </row>
-    <row r="126" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y125" s="42"/>
+      <c r="Z125" s="7"/>
+      <c r="AA125" s="38"/>
+      <c r="AB125" s="11"/>
+      <c r="AC125" s="11"/>
+      <c r="AD125" s="11"/>
+      <c r="AE125" s="9"/>
+      <c r="AF125" s="11"/>
+      <c r="AG125" s="11"/>
+      <c r="AH125" s="38"/>
+      <c r="AI125" s="11"/>
+      <c r="AJ125" s="11"/>
+      <c r="AK125" s="11"/>
+      <c r="AL125" s="22"/>
+    </row>
+    <row r="126" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -7031,18 +9939,31 @@
       <c r="M126" s="9"/>
       <c r="N126" s="11"/>
       <c r="O126" s="38"/>
-      <c r="P126" s="11"/>
+      <c r="P126" s="38"/>
       <c r="Q126" s="42"/>
       <c r="R126" s="38"/>
-      <c r="S126" s="11"/>
-      <c r="T126" s="42"/>
-      <c r="U126" s="7"/>
-      <c r="V126" s="9"/>
+      <c r="S126" s="38"/>
+      <c r="T126" s="11"/>
+      <c r="U126" s="11"/>
+      <c r="V126" s="11"/>
       <c r="W126" s="11"/>
       <c r="X126" s="11"/>
-      <c r="Y126" s="22"/>
-    </row>
-    <row r="127" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y126" s="42"/>
+      <c r="Z126" s="7"/>
+      <c r="AA126" s="38"/>
+      <c r="AB126" s="11"/>
+      <c r="AC126" s="11"/>
+      <c r="AD126" s="11"/>
+      <c r="AE126" s="9"/>
+      <c r="AF126" s="11"/>
+      <c r="AG126" s="11"/>
+      <c r="AH126" s="38"/>
+      <c r="AI126" s="11"/>
+      <c r="AJ126" s="11"/>
+      <c r="AK126" s="11"/>
+      <c r="AL126" s="22"/>
+    </row>
+    <row r="127" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -7058,18 +9979,31 @@
       <c r="M127" s="9"/>
       <c r="N127" s="11"/>
       <c r="O127" s="38"/>
-      <c r="P127" s="11"/>
+      <c r="P127" s="38"/>
       <c r="Q127" s="42"/>
       <c r="R127" s="38"/>
-      <c r="S127" s="11"/>
-      <c r="T127" s="42"/>
-      <c r="U127" s="7"/>
-      <c r="V127" s="9"/>
+      <c r="S127" s="38"/>
+      <c r="T127" s="11"/>
+      <c r="U127" s="11"/>
+      <c r="V127" s="11"/>
       <c r="W127" s="11"/>
       <c r="X127" s="11"/>
-      <c r="Y127" s="22"/>
-    </row>
-    <row r="128" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y127" s="42"/>
+      <c r="Z127" s="7"/>
+      <c r="AA127" s="38"/>
+      <c r="AB127" s="11"/>
+      <c r="AC127" s="11"/>
+      <c r="AD127" s="11"/>
+      <c r="AE127" s="9"/>
+      <c r="AF127" s="11"/>
+      <c r="AG127" s="11"/>
+      <c r="AH127" s="38"/>
+      <c r="AI127" s="11"/>
+      <c r="AJ127" s="11"/>
+      <c r="AK127" s="11"/>
+      <c r="AL127" s="22"/>
+    </row>
+    <row r="128" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -7085,18 +10019,31 @@
       <c r="M128" s="9"/>
       <c r="N128" s="11"/>
       <c r="O128" s="38"/>
-      <c r="P128" s="11"/>
+      <c r="P128" s="38"/>
       <c r="Q128" s="42"/>
       <c r="R128" s="38"/>
-      <c r="S128" s="11"/>
-      <c r="T128" s="42"/>
-      <c r="U128" s="7"/>
-      <c r="V128" s="9"/>
+      <c r="S128" s="38"/>
+      <c r="T128" s="11"/>
+      <c r="U128" s="11"/>
+      <c r="V128" s="11"/>
       <c r="W128" s="11"/>
       <c r="X128" s="11"/>
-      <c r="Y128" s="22"/>
-    </row>
-    <row r="129" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y128" s="42"/>
+      <c r="Z128" s="7"/>
+      <c r="AA128" s="38"/>
+      <c r="AB128" s="11"/>
+      <c r="AC128" s="11"/>
+      <c r="AD128" s="11"/>
+      <c r="AE128" s="9"/>
+      <c r="AF128" s="11"/>
+      <c r="AG128" s="11"/>
+      <c r="AH128" s="38"/>
+      <c r="AI128" s="11"/>
+      <c r="AJ128" s="11"/>
+      <c r="AK128" s="11"/>
+      <c r="AL128" s="22"/>
+    </row>
+    <row r="129" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -7112,18 +10059,31 @@
       <c r="M129" s="9"/>
       <c r="N129" s="11"/>
       <c r="O129" s="38"/>
-      <c r="P129" s="11"/>
+      <c r="P129" s="38"/>
       <c r="Q129" s="42"/>
       <c r="R129" s="38"/>
-      <c r="S129" s="11"/>
-      <c r="T129" s="42"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="9"/>
+      <c r="S129" s="38"/>
+      <c r="T129" s="11"/>
+      <c r="U129" s="11"/>
+      <c r="V129" s="11"/>
       <c r="W129" s="11"/>
       <c r="X129" s="11"/>
-      <c r="Y129" s="22"/>
-    </row>
-    <row r="130" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y129" s="42"/>
+      <c r="Z129" s="7"/>
+      <c r="AA129" s="38"/>
+      <c r="AB129" s="11"/>
+      <c r="AC129" s="11"/>
+      <c r="AD129" s="11"/>
+      <c r="AE129" s="9"/>
+      <c r="AF129" s="11"/>
+      <c r="AG129" s="11"/>
+      <c r="AH129" s="38"/>
+      <c r="AI129" s="11"/>
+      <c r="AJ129" s="11"/>
+      <c r="AK129" s="11"/>
+      <c r="AL129" s="22"/>
+    </row>
+    <row r="130" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -7139,18 +10099,31 @@
       <c r="M130" s="9"/>
       <c r="N130" s="11"/>
       <c r="O130" s="38"/>
-      <c r="P130" s="11"/>
+      <c r="P130" s="38"/>
       <c r="Q130" s="42"/>
       <c r="R130" s="38"/>
-      <c r="S130" s="11"/>
-      <c r="T130" s="42"/>
-      <c r="U130" s="7"/>
-      <c r="V130" s="9"/>
+      <c r="S130" s="38"/>
+      <c r="T130" s="11"/>
+      <c r="U130" s="11"/>
+      <c r="V130" s="11"/>
       <c r="W130" s="11"/>
       <c r="X130" s="11"/>
-      <c r="Y130" s="22"/>
-    </row>
-    <row r="131" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y130" s="42"/>
+      <c r="Z130" s="7"/>
+      <c r="AA130" s="38"/>
+      <c r="AB130" s="11"/>
+      <c r="AC130" s="11"/>
+      <c r="AD130" s="11"/>
+      <c r="AE130" s="9"/>
+      <c r="AF130" s="11"/>
+      <c r="AG130" s="11"/>
+      <c r="AH130" s="38"/>
+      <c r="AI130" s="11"/>
+      <c r="AJ130" s="11"/>
+      <c r="AK130" s="11"/>
+      <c r="AL130" s="22"/>
+    </row>
+    <row r="131" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -7166,18 +10139,31 @@
       <c r="M131" s="9"/>
       <c r="N131" s="11"/>
       <c r="O131" s="38"/>
-      <c r="P131" s="11"/>
+      <c r="P131" s="38"/>
       <c r="Q131" s="42"/>
       <c r="R131" s="38"/>
-      <c r="S131" s="11"/>
-      <c r="T131" s="42"/>
-      <c r="U131" s="7"/>
-      <c r="V131" s="9"/>
+      <c r="S131" s="38"/>
+      <c r="T131" s="11"/>
+      <c r="U131" s="11"/>
+      <c r="V131" s="11"/>
       <c r="W131" s="11"/>
       <c r="X131" s="11"/>
-      <c r="Y131" s="22"/>
-    </row>
-    <row r="132" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y131" s="42"/>
+      <c r="Z131" s="7"/>
+      <c r="AA131" s="38"/>
+      <c r="AB131" s="11"/>
+      <c r="AC131" s="11"/>
+      <c r="AD131" s="11"/>
+      <c r="AE131" s="9"/>
+      <c r="AF131" s="11"/>
+      <c r="AG131" s="11"/>
+      <c r="AH131" s="38"/>
+      <c r="AI131" s="11"/>
+      <c r="AJ131" s="11"/>
+      <c r="AK131" s="11"/>
+      <c r="AL131" s="22"/>
+    </row>
+    <row r="132" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -7193,18 +10179,31 @@
       <c r="M132" s="9"/>
       <c r="N132" s="11"/>
       <c r="O132" s="38"/>
-      <c r="P132" s="11"/>
+      <c r="P132" s="38"/>
       <c r="Q132" s="42"/>
       <c r="R132" s="38"/>
-      <c r="S132" s="11"/>
-      <c r="T132" s="42"/>
-      <c r="U132" s="7"/>
-      <c r="V132" s="9"/>
+      <c r="S132" s="38"/>
+      <c r="T132" s="11"/>
+      <c r="U132" s="11"/>
+      <c r="V132" s="11"/>
       <c r="W132" s="11"/>
       <c r="X132" s="11"/>
-      <c r="Y132" s="22"/>
-    </row>
-    <row r="133" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y132" s="42"/>
+      <c r="Z132" s="7"/>
+      <c r="AA132" s="38"/>
+      <c r="AB132" s="11"/>
+      <c r="AC132" s="11"/>
+      <c r="AD132" s="11"/>
+      <c r="AE132" s="9"/>
+      <c r="AF132" s="11"/>
+      <c r="AG132" s="11"/>
+      <c r="AH132" s="38"/>
+      <c r="AI132" s="11"/>
+      <c r="AJ132" s="11"/>
+      <c r="AK132" s="11"/>
+      <c r="AL132" s="22"/>
+    </row>
+    <row r="133" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -7220,18 +10219,31 @@
       <c r="M133" s="9"/>
       <c r="N133" s="11"/>
       <c r="O133" s="38"/>
-      <c r="P133" s="11"/>
+      <c r="P133" s="38"/>
       <c r="Q133" s="42"/>
       <c r="R133" s="38"/>
-      <c r="S133" s="11"/>
-      <c r="T133" s="42"/>
-      <c r="U133" s="7"/>
-      <c r="V133" s="9"/>
+      <c r="S133" s="38"/>
+      <c r="T133" s="11"/>
+      <c r="U133" s="11"/>
+      <c r="V133" s="11"/>
       <c r="W133" s="11"/>
       <c r="X133" s="11"/>
-      <c r="Y133" s="22"/>
-    </row>
-    <row r="134" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y133" s="42"/>
+      <c r="Z133" s="7"/>
+      <c r="AA133" s="38"/>
+      <c r="AB133" s="11"/>
+      <c r="AC133" s="11"/>
+      <c r="AD133" s="11"/>
+      <c r="AE133" s="9"/>
+      <c r="AF133" s="11"/>
+      <c r="AG133" s="11"/>
+      <c r="AH133" s="38"/>
+      <c r="AI133" s="11"/>
+      <c r="AJ133" s="11"/>
+      <c r="AK133" s="11"/>
+      <c r="AL133" s="22"/>
+    </row>
+    <row r="134" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -7247,18 +10259,31 @@
       <c r="M134" s="9"/>
       <c r="N134" s="11"/>
       <c r="O134" s="38"/>
-      <c r="P134" s="11"/>
+      <c r="P134" s="38"/>
       <c r="Q134" s="42"/>
       <c r="R134" s="38"/>
-      <c r="S134" s="11"/>
-      <c r="T134" s="42"/>
-      <c r="U134" s="7"/>
-      <c r="V134" s="9"/>
+      <c r="S134" s="38"/>
+      <c r="T134" s="11"/>
+      <c r="U134" s="11"/>
+      <c r="V134" s="11"/>
       <c r="W134" s="11"/>
       <c r="X134" s="11"/>
-      <c r="Y134" s="22"/>
-    </row>
-    <row r="135" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y134" s="42"/>
+      <c r="Z134" s="7"/>
+      <c r="AA134" s="38"/>
+      <c r="AB134" s="11"/>
+      <c r="AC134" s="11"/>
+      <c r="AD134" s="11"/>
+      <c r="AE134" s="9"/>
+      <c r="AF134" s="11"/>
+      <c r="AG134" s="11"/>
+      <c r="AH134" s="38"/>
+      <c r="AI134" s="11"/>
+      <c r="AJ134" s="11"/>
+      <c r="AK134" s="11"/>
+      <c r="AL134" s="22"/>
+    </row>
+    <row r="135" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -7274,38 +10299,59 @@
       <c r="M135" s="9"/>
       <c r="N135" s="11"/>
       <c r="O135" s="38"/>
-      <c r="P135" s="11"/>
+      <c r="P135" s="38"/>
       <c r="Q135" s="42"/>
       <c r="R135" s="38"/>
-      <c r="S135" s="11"/>
-      <c r="T135" s="42"/>
-      <c r="U135" s="7"/>
-      <c r="V135" s="9"/>
+      <c r="S135" s="38"/>
+      <c r="T135" s="11"/>
+      <c r="U135" s="11"/>
+      <c r="V135" s="11"/>
       <c r="W135" s="11"/>
       <c r="X135" s="11"/>
-      <c r="Y135" s="22"/>
+      <c r="Y135" s="42"/>
+      <c r="Z135" s="7"/>
+      <c r="AA135" s="38"/>
+      <c r="AB135" s="11"/>
+      <c r="AC135" s="11"/>
+      <c r="AD135" s="11"/>
+      <c r="AE135" s="9"/>
+      <c r="AF135" s="11"/>
+      <c r="AG135" s="11"/>
+      <c r="AH135" s="38"/>
+      <c r="AI135" s="11"/>
+      <c r="AJ135" s="11"/>
+      <c r="AK135" s="11"/>
+      <c r="AL135" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="W8:X9"/>
+  <mergeCells count="27">
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="AF5:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AF8:AG9"/>
     <mergeCell ref="Q5:R6"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="W3:X4"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
